--- a/Entwurf.xlsx
+++ b/Entwurf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Vorbehandlungen" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8624" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9308" uniqueCount="404">
   <si>
     <t>HDH Aufschluss</t>
   </si>
@@ -1050,6 +1050,195 @@
   <si>
     <t>UNK</t>
   </si>
+  <si>
+    <t>Zellen nach Vorbehandlung</t>
+  </si>
+  <si>
+    <t>V-2(22)</t>
+  </si>
+  <si>
+    <t>PMAG GC 192 Pellé Oberschicht aus PMAG 115</t>
+  </si>
+  <si>
+    <t>PMAG GC 194 Pellé Mitte aus PMAG 115</t>
+  </si>
+  <si>
+    <t>PMAG GC 193 Pellé Boden aus PMAG 115</t>
+  </si>
+  <si>
+    <t>PMAG GC 195 Pellé Oberschicht aus PMAG 116</t>
+  </si>
+  <si>
+    <t>PMAG GC 197 Pellé Mitte aus PMAG 116</t>
+  </si>
+  <si>
+    <t>PMAG GC 196 Pellé Boden aus PMAG 116</t>
+  </si>
+  <si>
+    <t>IE-1(19)</t>
+  </si>
+  <si>
+    <t>V-3(33)</t>
+  </si>
+  <si>
+    <t>PMAG GC 198 aus PMAG 109</t>
+  </si>
+  <si>
+    <t>PMAG GC 199 aus PMAG 109</t>
+  </si>
+  <si>
+    <t>PMAG GC 210 aus PMAG 160</t>
+  </si>
+  <si>
+    <t>PMAG GC 209 aus PMAG 160</t>
+  </si>
+  <si>
+    <t>PMAG GC 211 aus PMAG 161</t>
+  </si>
+  <si>
+    <t>PMAG GC 212 aus PMAG 161</t>
+  </si>
+  <si>
+    <t>PMAG GC 218 aus PMAG 164</t>
+  </si>
+  <si>
+    <t>PMAG GC 213 aus PMAG 162</t>
+  </si>
+  <si>
+    <t>PMAG GC 214 aus PMAG 162</t>
+  </si>
+  <si>
+    <t>PMAG GC 215 aus PMAG 163</t>
+  </si>
+  <si>
+    <t>PMAG GC 216 aus PMAG 163</t>
+  </si>
+  <si>
+    <t>PMAG GC 217 aus PMAG 164</t>
+  </si>
+  <si>
+    <t>PMAG GC 219 aus PMAG 165</t>
+  </si>
+  <si>
+    <t>PMAG GC 220 aus PMAG 165</t>
+  </si>
+  <si>
+    <t>PMAG GC 221 aus PMAG 166</t>
+  </si>
+  <si>
+    <t>PMAG GC 222 aus PMAG 166</t>
+  </si>
+  <si>
+    <t>PMAG GC 223 aus PMAG 167</t>
+  </si>
+  <si>
+    <t>PMAG GC 224 aus PMAG 167</t>
+  </si>
+  <si>
+    <t>PMAG GC 225 aus PMAG 168</t>
+  </si>
+  <si>
+    <t>PMAG GC 226 aus PMAG 168</t>
+  </si>
+  <si>
+    <t>PMAG GC 227 aus PMAG 169</t>
+  </si>
+  <si>
+    <t>PMAG GC 228 aus PMAG 169</t>
+  </si>
+  <si>
+    <t>PMAG GC 200 aus PMAG 98</t>
+  </si>
+  <si>
+    <t>PMAG GC 201 aus PMAG 99</t>
+  </si>
+  <si>
+    <t>PMAG GC 202 aus PMAG 100</t>
+  </si>
+  <si>
+    <t>PMAG GC 203 aus PMAG 101</t>
+  </si>
+  <si>
+    <t>PMAG GC 204 aus PMAG 102</t>
+  </si>
+  <si>
+    <t>PMAG GC 205 aus PMAG 103</t>
+  </si>
+  <si>
+    <t>PMAG GC 206 aus PMAG 104</t>
+  </si>
+  <si>
+    <t>PMAG GC 207 aus PMAG 105</t>
+  </si>
+  <si>
+    <t>PMAG GC 208 aus PMAG 106</t>
+  </si>
+  <si>
+    <t>IF-3(19)</t>
+  </si>
+  <si>
+    <t>PMAG GC 303 aus PMAG 229</t>
+  </si>
+  <si>
+    <t>PMAG GC 304 aus PMAG 229</t>
+  </si>
+  <si>
+    <t>V-4(43)</t>
+  </si>
+  <si>
+    <t>PMAG GC 305 aus PMAG 230</t>
+  </si>
+  <si>
+    <t>PMAG GC 306 aus PMAG 230</t>
+  </si>
+  <si>
+    <t>PMAG GC 307 aus PMAG 231</t>
+  </si>
+  <si>
+    <t>PMAG GC 308 aus PMAG 231</t>
+  </si>
+  <si>
+    <t>PMAG GC 309 aus PMAG 232</t>
+  </si>
+  <si>
+    <t>PMAG GC 310 aus PMAG 232</t>
+  </si>
+  <si>
+    <t>PMAG GC 311 aus PMAG 233</t>
+  </si>
+  <si>
+    <t>PMAG GC 312 aus PMAG 233</t>
+  </si>
+  <si>
+    <t>PMAG GC 313 aus PMAG 234</t>
+  </si>
+  <si>
+    <t>PMAG GC 314 aus PMAG 234</t>
+  </si>
+  <si>
+    <t>PMAG GC 315 aus PMAG 235</t>
+  </si>
+  <si>
+    <t>PMAG GC 316 aus PMAG 235</t>
+  </si>
+  <si>
+    <t>PMAG GC 317 aus PMAG 236</t>
+  </si>
+  <si>
+    <t>PMAG GC 318 aus PMAG 236</t>
+  </si>
+  <si>
+    <t>PMAG GC 319 aus PMAG 237</t>
+  </si>
+  <si>
+    <t>PMAG GC 320 aus PMAG 237</t>
+  </si>
+  <si>
+    <t>PMAG GC 321 aus PMAG 238</t>
+  </si>
+  <si>
+    <t>PMAG GC 322 aus PMAG 238</t>
+  </si>
 </sst>
 </file>
 
@@ -1575,8 +1764,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:M593" totalsRowShown="0">
-  <autoFilter ref="A1:M593"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:M650" totalsRowShown="0">
+  <autoFilter ref="A1:M650"/>
   <sortState ref="A2:M592">
     <sortCondition ref="A1:A592"/>
   </sortState>
@@ -1614,8 +1803,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:I1146" totalsRowShown="0">
-  <autoFilter ref="A1:I1146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:I1317" totalsRowShown="0">
+  <autoFilter ref="A1:I1317"/>
   <sortState ref="A2:I1143">
     <sortCondition ref="A1:A1143"/>
   </sortState>
@@ -2267,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2550,8 +2739,8 @@
   <dimension ref="A1:S159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11494,7 +11683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A337" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -16213,10 +16402,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M593"/>
+  <dimension ref="A1:M650"/>
   <sheetViews>
-    <sheetView topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="E602" sqref="E602"/>
+    <sheetView topLeftCell="B567" workbookViewId="0">
+      <selection activeCell="F644" sqref="F644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38882,6 +39071,2172 @@
       </c>
       <c r="M593" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>597</v>
+      </c>
+      <c r="B594" s="11">
+        <v>44693</v>
+      </c>
+      <c r="C594" t="s">
+        <v>341</v>
+      </c>
+      <c r="D594" t="s">
+        <v>74</v>
+      </c>
+      <c r="E594" t="s">
+        <v>342</v>
+      </c>
+      <c r="F594" t="s">
+        <v>227</v>
+      </c>
+      <c r="G594" t="s">
+        <v>229</v>
+      </c>
+      <c r="I594">
+        <v>0.01</v>
+      </c>
+      <c r="J594" t="s">
+        <v>335</v>
+      </c>
+      <c r="K594" t="s">
+        <v>335</v>
+      </c>
+      <c r="L594" t="s">
+        <v>334</v>
+      </c>
+      <c r="M594" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>598</v>
+      </c>
+      <c r="B595" s="11">
+        <v>44693</v>
+      </c>
+      <c r="C595" t="s">
+        <v>341</v>
+      </c>
+      <c r="D595" t="s">
+        <v>74</v>
+      </c>
+      <c r="E595" t="s">
+        <v>342</v>
+      </c>
+      <c r="F595" t="s">
+        <v>227</v>
+      </c>
+      <c r="G595" t="s">
+        <v>229</v>
+      </c>
+      <c r="I595">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J595" t="s">
+        <v>335</v>
+      </c>
+      <c r="K595" t="s">
+        <v>335</v>
+      </c>
+      <c r="L595" t="s">
+        <v>334</v>
+      </c>
+      <c r="M595" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>599</v>
+      </c>
+      <c r="B596" s="11">
+        <v>44693</v>
+      </c>
+      <c r="C596" t="s">
+        <v>341</v>
+      </c>
+      <c r="D596" t="s">
+        <v>74</v>
+      </c>
+      <c r="E596" t="s">
+        <v>342</v>
+      </c>
+      <c r="F596" t="s">
+        <v>227</v>
+      </c>
+      <c r="G596" t="s">
+        <v>229</v>
+      </c>
+      <c r="I596">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J596" t="s">
+        <v>335</v>
+      </c>
+      <c r="K596" t="s">
+        <v>335</v>
+      </c>
+      <c r="L596" t="s">
+        <v>334</v>
+      </c>
+      <c r="M596" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>600</v>
+      </c>
+      <c r="B597" s="11">
+        <v>44693</v>
+      </c>
+      <c r="C597" t="s">
+        <v>341</v>
+      </c>
+      <c r="D597" t="s">
+        <v>74</v>
+      </c>
+      <c r="E597" t="s">
+        <v>342</v>
+      </c>
+      <c r="F597" t="s">
+        <v>227</v>
+      </c>
+      <c r="G597" t="s">
+        <v>229</v>
+      </c>
+      <c r="I597">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J597" t="s">
+        <v>335</v>
+      </c>
+      <c r="K597" t="s">
+        <v>335</v>
+      </c>
+      <c r="L597" t="s">
+        <v>334</v>
+      </c>
+      <c r="M597" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>601</v>
+      </c>
+      <c r="B598" s="11">
+        <v>44693</v>
+      </c>
+      <c r="C598" t="s">
+        <v>341</v>
+      </c>
+      <c r="D598" t="s">
+        <v>74</v>
+      </c>
+      <c r="E598" t="s">
+        <v>342</v>
+      </c>
+      <c r="F598" t="s">
+        <v>227</v>
+      </c>
+      <c r="G598" t="s">
+        <v>229</v>
+      </c>
+      <c r="I598">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J598" t="s">
+        <v>335</v>
+      </c>
+      <c r="K598" t="s">
+        <v>335</v>
+      </c>
+      <c r="L598" t="s">
+        <v>334</v>
+      </c>
+      <c r="M598" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>602</v>
+      </c>
+      <c r="B599" s="11">
+        <v>44693</v>
+      </c>
+      <c r="C599" t="s">
+        <v>341</v>
+      </c>
+      <c r="D599" t="s">
+        <v>74</v>
+      </c>
+      <c r="E599" t="s">
+        <v>342</v>
+      </c>
+      <c r="F599" t="s">
+        <v>227</v>
+      </c>
+      <c r="G599" t="s">
+        <v>229</v>
+      </c>
+      <c r="I599">
+        <v>0.01</v>
+      </c>
+      <c r="J599" t="s">
+        <v>335</v>
+      </c>
+      <c r="K599" t="s">
+        <v>335</v>
+      </c>
+      <c r="L599" t="s">
+        <v>334</v>
+      </c>
+      <c r="M599" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>603</v>
+      </c>
+      <c r="B600" s="11">
+        <v>44694</v>
+      </c>
+      <c r="C600" t="s">
+        <v>82</v>
+      </c>
+      <c r="D600" t="s">
+        <v>74</v>
+      </c>
+      <c r="E600" t="s">
+        <v>349</v>
+      </c>
+      <c r="F600" t="s">
+        <v>227</v>
+      </c>
+      <c r="G600" t="s">
+        <v>229</v>
+      </c>
+      <c r="I600">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J600" t="s">
+        <v>335</v>
+      </c>
+      <c r="K600" t="s">
+        <v>335</v>
+      </c>
+      <c r="L600" t="s">
+        <v>334</v>
+      </c>
+      <c r="M600" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>604</v>
+      </c>
+      <c r="B601" s="11">
+        <v>44694</v>
+      </c>
+      <c r="C601" t="s">
+        <v>82</v>
+      </c>
+      <c r="D601" t="s">
+        <v>74</v>
+      </c>
+      <c r="E601" t="s">
+        <v>349</v>
+      </c>
+      <c r="F601" t="s">
+        <v>227</v>
+      </c>
+      <c r="G601" t="s">
+        <v>229</v>
+      </c>
+      <c r="I601">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J601" t="s">
+        <v>335</v>
+      </c>
+      <c r="K601" t="s">
+        <v>335</v>
+      </c>
+      <c r="L601" t="s">
+        <v>334</v>
+      </c>
+      <c r="M601" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>605</v>
+      </c>
+      <c r="B602" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C602" t="s">
+        <v>341</v>
+      </c>
+      <c r="D602" t="s">
+        <v>74</v>
+      </c>
+      <c r="E602" t="s">
+        <v>350</v>
+      </c>
+      <c r="F602" t="s">
+        <v>227</v>
+      </c>
+      <c r="G602" t="s">
+        <v>229</v>
+      </c>
+      <c r="I602">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J602" t="s">
+        <v>335</v>
+      </c>
+      <c r="K602" t="s">
+        <v>335</v>
+      </c>
+      <c r="L602" t="s">
+        <v>334</v>
+      </c>
+      <c r="M602" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>606</v>
+      </c>
+      <c r="B603" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C603" t="s">
+        <v>341</v>
+      </c>
+      <c r="D603" t="s">
+        <v>74</v>
+      </c>
+      <c r="E603" t="s">
+        <v>350</v>
+      </c>
+      <c r="F603" t="s">
+        <v>227</v>
+      </c>
+      <c r="G603" t="s">
+        <v>229</v>
+      </c>
+      <c r="I603">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J603" t="s">
+        <v>335</v>
+      </c>
+      <c r="K603" t="s">
+        <v>335</v>
+      </c>
+      <c r="L603" t="s">
+        <v>334</v>
+      </c>
+      <c r="M603" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>607</v>
+      </c>
+      <c r="B604" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C604" t="s">
+        <v>341</v>
+      </c>
+      <c r="D604" t="s">
+        <v>74</v>
+      </c>
+      <c r="E604" t="s">
+        <v>350</v>
+      </c>
+      <c r="F604" t="s">
+        <v>227</v>
+      </c>
+      <c r="G604" t="s">
+        <v>229</v>
+      </c>
+      <c r="I604">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J604" t="s">
+        <v>335</v>
+      </c>
+      <c r="K604" t="s">
+        <v>335</v>
+      </c>
+      <c r="L604" t="s">
+        <v>334</v>
+      </c>
+      <c r="M604" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>608</v>
+      </c>
+      <c r="B605" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C605" t="s">
+        <v>341</v>
+      </c>
+      <c r="D605" t="s">
+        <v>74</v>
+      </c>
+      <c r="E605" t="s">
+        <v>350</v>
+      </c>
+      <c r="F605" t="s">
+        <v>227</v>
+      </c>
+      <c r="G605" t="s">
+        <v>229</v>
+      </c>
+      <c r="I605">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J605" t="s">
+        <v>335</v>
+      </c>
+      <c r="K605" t="s">
+        <v>335</v>
+      </c>
+      <c r="L605" t="s">
+        <v>334</v>
+      </c>
+      <c r="M605" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>609</v>
+      </c>
+      <c r="B606" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C606" t="s">
+        <v>341</v>
+      </c>
+      <c r="D606" t="s">
+        <v>74</v>
+      </c>
+      <c r="E606" t="s">
+        <v>350</v>
+      </c>
+      <c r="F606" t="s">
+        <v>227</v>
+      </c>
+      <c r="G606" t="s">
+        <v>229</v>
+      </c>
+      <c r="I606">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J606" t="s">
+        <v>335</v>
+      </c>
+      <c r="K606" t="s">
+        <v>335</v>
+      </c>
+      <c r="L606" t="s">
+        <v>334</v>
+      </c>
+      <c r="M606" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>610</v>
+      </c>
+      <c r="B607" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C607" t="s">
+        <v>341</v>
+      </c>
+      <c r="D607" t="s">
+        <v>74</v>
+      </c>
+      <c r="E607" t="s">
+        <v>350</v>
+      </c>
+      <c r="F607" t="s">
+        <v>227</v>
+      </c>
+      <c r="G607" t="s">
+        <v>229</v>
+      </c>
+      <c r="I607">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J607" t="s">
+        <v>335</v>
+      </c>
+      <c r="K607" t="s">
+        <v>335</v>
+      </c>
+      <c r="L607" t="s">
+        <v>334</v>
+      </c>
+      <c r="M607" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>611</v>
+      </c>
+      <c r="B608" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C608" t="s">
+        <v>341</v>
+      </c>
+      <c r="D608" t="s">
+        <v>74</v>
+      </c>
+      <c r="E608" t="s">
+        <v>350</v>
+      </c>
+      <c r="F608" t="s">
+        <v>227</v>
+      </c>
+      <c r="G608" t="s">
+        <v>229</v>
+      </c>
+      <c r="I608">
+        <v>0.01</v>
+      </c>
+      <c r="J608" t="s">
+        <v>335</v>
+      </c>
+      <c r="K608" t="s">
+        <v>335</v>
+      </c>
+      <c r="L608" t="s">
+        <v>334</v>
+      </c>
+      <c r="M608" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>612</v>
+      </c>
+      <c r="B609" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C609" t="s">
+        <v>341</v>
+      </c>
+      <c r="D609" t="s">
+        <v>74</v>
+      </c>
+      <c r="E609" t="s">
+        <v>350</v>
+      </c>
+      <c r="F609" t="s">
+        <v>227</v>
+      </c>
+      <c r="G609" t="s">
+        <v>229</v>
+      </c>
+      <c r="I609">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J609" t="s">
+        <v>335</v>
+      </c>
+      <c r="K609" t="s">
+        <v>335</v>
+      </c>
+      <c r="L609" t="s">
+        <v>334</v>
+      </c>
+      <c r="M609" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>613</v>
+      </c>
+      <c r="B610" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C610" t="s">
+        <v>341</v>
+      </c>
+      <c r="D610" t="s">
+        <v>74</v>
+      </c>
+      <c r="E610" t="s">
+        <v>350</v>
+      </c>
+      <c r="F610" t="s">
+        <v>227</v>
+      </c>
+      <c r="G610" t="s">
+        <v>229</v>
+      </c>
+      <c r="I610">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J610" t="s">
+        <v>335</v>
+      </c>
+      <c r="K610" t="s">
+        <v>335</v>
+      </c>
+      <c r="L610" t="s">
+        <v>334</v>
+      </c>
+      <c r="M610" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>614</v>
+      </c>
+      <c r="B611" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C611" t="s">
+        <v>341</v>
+      </c>
+      <c r="D611" t="s">
+        <v>74</v>
+      </c>
+      <c r="E611" t="s">
+        <v>350</v>
+      </c>
+      <c r="F611" t="s">
+        <v>227</v>
+      </c>
+      <c r="G611" t="s">
+        <v>229</v>
+      </c>
+      <c r="I611">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J611" t="s">
+        <v>335</v>
+      </c>
+      <c r="K611" t="s">
+        <v>335</v>
+      </c>
+      <c r="L611" t="s">
+        <v>334</v>
+      </c>
+      <c r="M611" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>615</v>
+      </c>
+      <c r="B612" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C612" t="s">
+        <v>341</v>
+      </c>
+      <c r="D612" t="s">
+        <v>74</v>
+      </c>
+      <c r="E612" t="s">
+        <v>350</v>
+      </c>
+      <c r="F612" t="s">
+        <v>227</v>
+      </c>
+      <c r="G612" t="s">
+        <v>229</v>
+      </c>
+      <c r="I612">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J612" t="s">
+        <v>335</v>
+      </c>
+      <c r="K612" t="s">
+        <v>335</v>
+      </c>
+      <c r="L612" t="s">
+        <v>334</v>
+      </c>
+      <c r="M612" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>616</v>
+      </c>
+      <c r="B613" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C613" t="s">
+        <v>341</v>
+      </c>
+      <c r="D613" t="s">
+        <v>74</v>
+      </c>
+      <c r="E613" t="s">
+        <v>350</v>
+      </c>
+      <c r="F613" t="s">
+        <v>227</v>
+      </c>
+      <c r="G613" t="s">
+        <v>229</v>
+      </c>
+      <c r="I613">
+        <v>0.01</v>
+      </c>
+      <c r="J613" t="s">
+        <v>335</v>
+      </c>
+      <c r="K613" t="s">
+        <v>335</v>
+      </c>
+      <c r="L613" t="s">
+        <v>334</v>
+      </c>
+      <c r="M613" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>617</v>
+      </c>
+      <c r="B614" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C614" t="s">
+        <v>341</v>
+      </c>
+      <c r="D614" t="s">
+        <v>74</v>
+      </c>
+      <c r="E614" t="s">
+        <v>350</v>
+      </c>
+      <c r="F614" t="s">
+        <v>227</v>
+      </c>
+      <c r="G614" t="s">
+        <v>229</v>
+      </c>
+      <c r="I614">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J614" t="s">
+        <v>335</v>
+      </c>
+      <c r="K614" t="s">
+        <v>335</v>
+      </c>
+      <c r="L614" t="s">
+        <v>334</v>
+      </c>
+      <c r="M614" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>618</v>
+      </c>
+      <c r="B615" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C615" t="s">
+        <v>341</v>
+      </c>
+      <c r="D615" t="s">
+        <v>74</v>
+      </c>
+      <c r="E615" t="s">
+        <v>350</v>
+      </c>
+      <c r="F615" t="s">
+        <v>227</v>
+      </c>
+      <c r="G615" t="s">
+        <v>229</v>
+      </c>
+      <c r="I615">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J615" t="s">
+        <v>335</v>
+      </c>
+      <c r="K615" t="s">
+        <v>335</v>
+      </c>
+      <c r="L615" t="s">
+        <v>334</v>
+      </c>
+      <c r="M615" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>619</v>
+      </c>
+      <c r="B616" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C616" t="s">
+        <v>341</v>
+      </c>
+      <c r="D616" t="s">
+        <v>74</v>
+      </c>
+      <c r="E616" t="s">
+        <v>350</v>
+      </c>
+      <c r="F616" t="s">
+        <v>227</v>
+      </c>
+      <c r="G616" t="s">
+        <v>229</v>
+      </c>
+      <c r="I616">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J616" t="s">
+        <v>335</v>
+      </c>
+      <c r="K616" t="s">
+        <v>335</v>
+      </c>
+      <c r="L616" t="s">
+        <v>334</v>
+      </c>
+      <c r="M616" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>620</v>
+      </c>
+      <c r="B617" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C617" t="s">
+        <v>341</v>
+      </c>
+      <c r="D617" t="s">
+        <v>74</v>
+      </c>
+      <c r="E617" t="s">
+        <v>350</v>
+      </c>
+      <c r="F617" t="s">
+        <v>227</v>
+      </c>
+      <c r="G617" t="s">
+        <v>229</v>
+      </c>
+      <c r="I617">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J617" t="s">
+        <v>335</v>
+      </c>
+      <c r="K617" t="s">
+        <v>335</v>
+      </c>
+      <c r="L617" t="s">
+        <v>334</v>
+      </c>
+      <c r="M617" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>621</v>
+      </c>
+      <c r="B618" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C618" t="s">
+        <v>341</v>
+      </c>
+      <c r="D618" t="s">
+        <v>74</v>
+      </c>
+      <c r="E618" t="s">
+        <v>350</v>
+      </c>
+      <c r="F618" t="s">
+        <v>227</v>
+      </c>
+      <c r="G618" t="s">
+        <v>229</v>
+      </c>
+      <c r="I618">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J618" t="s">
+        <v>335</v>
+      </c>
+      <c r="K618" t="s">
+        <v>335</v>
+      </c>
+      <c r="L618" t="s">
+        <v>334</v>
+      </c>
+      <c r="M618" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>622</v>
+      </c>
+      <c r="B619" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C619" t="s">
+        <v>341</v>
+      </c>
+      <c r="D619" t="s">
+        <v>74</v>
+      </c>
+      <c r="E619" t="s">
+        <v>350</v>
+      </c>
+      <c r="F619" t="s">
+        <v>227</v>
+      </c>
+      <c r="G619" t="s">
+        <v>229</v>
+      </c>
+      <c r="I619">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J619" t="s">
+        <v>335</v>
+      </c>
+      <c r="K619" t="s">
+        <v>335</v>
+      </c>
+      <c r="L619" t="s">
+        <v>334</v>
+      </c>
+      <c r="M619" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>623</v>
+      </c>
+      <c r="B620" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C620" t="s">
+        <v>341</v>
+      </c>
+      <c r="D620" t="s">
+        <v>74</v>
+      </c>
+      <c r="E620" t="s">
+        <v>350</v>
+      </c>
+      <c r="F620" t="s">
+        <v>227</v>
+      </c>
+      <c r="G620" t="s">
+        <v>229</v>
+      </c>
+      <c r="I620">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J620" t="s">
+        <v>335</v>
+      </c>
+      <c r="K620" t="s">
+        <v>335</v>
+      </c>
+      <c r="L620" t="s">
+        <v>334</v>
+      </c>
+      <c r="M620" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>624</v>
+      </c>
+      <c r="B621" s="11">
+        <v>44699</v>
+      </c>
+      <c r="C621" t="s">
+        <v>341</v>
+      </c>
+      <c r="D621" t="s">
+        <v>74</v>
+      </c>
+      <c r="E621" t="s">
+        <v>350</v>
+      </c>
+      <c r="F621" t="s">
+        <v>227</v>
+      </c>
+      <c r="G621" t="s">
+        <v>229</v>
+      </c>
+      <c r="I621">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J621" t="s">
+        <v>335</v>
+      </c>
+      <c r="K621" t="s">
+        <v>335</v>
+      </c>
+      <c r="L621" t="s">
+        <v>334</v>
+      </c>
+      <c r="M621" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>625</v>
+      </c>
+      <c r="B622" s="11">
+        <v>44704</v>
+      </c>
+      <c r="C622" t="s">
+        <v>24</v>
+      </c>
+      <c r="D622" t="s">
+        <v>74</v>
+      </c>
+      <c r="E622" t="s">
+        <v>382</v>
+      </c>
+      <c r="F622" t="s">
+        <v>227</v>
+      </c>
+      <c r="G622" t="s">
+        <v>229</v>
+      </c>
+      <c r="I622">
+        <v>0.01</v>
+      </c>
+      <c r="J622" t="s">
+        <v>335</v>
+      </c>
+      <c r="K622" t="s">
+        <v>335</v>
+      </c>
+      <c r="L622" t="s">
+        <v>334</v>
+      </c>
+      <c r="M622" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>626</v>
+      </c>
+      <c r="B623" s="11">
+        <v>44704</v>
+      </c>
+      <c r="C623" t="s">
+        <v>24</v>
+      </c>
+      <c r="D623" t="s">
+        <v>74</v>
+      </c>
+      <c r="E623" t="s">
+        <v>382</v>
+      </c>
+      <c r="F623" t="s">
+        <v>227</v>
+      </c>
+      <c r="G623" t="s">
+        <v>229</v>
+      </c>
+      <c r="I623">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J623" t="s">
+        <v>335</v>
+      </c>
+      <c r="K623" t="s">
+        <v>335</v>
+      </c>
+      <c r="L623" t="s">
+        <v>334</v>
+      </c>
+      <c r="M623" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>627</v>
+      </c>
+      <c r="B624" s="11">
+        <v>44704</v>
+      </c>
+      <c r="C624" t="s">
+        <v>24</v>
+      </c>
+      <c r="D624" t="s">
+        <v>74</v>
+      </c>
+      <c r="E624" t="s">
+        <v>382</v>
+      </c>
+      <c r="F624" t="s">
+        <v>227</v>
+      </c>
+      <c r="G624" t="s">
+        <v>229</v>
+      </c>
+      <c r="I624">
+        <v>0.01</v>
+      </c>
+      <c r="J624" t="s">
+        <v>335</v>
+      </c>
+      <c r="K624" t="s">
+        <v>335</v>
+      </c>
+      <c r="L624" t="s">
+        <v>334</v>
+      </c>
+      <c r="M624" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>628</v>
+      </c>
+      <c r="B625" s="11">
+        <v>44704</v>
+      </c>
+      <c r="C625" t="s">
+        <v>24</v>
+      </c>
+      <c r="D625" t="s">
+        <v>74</v>
+      </c>
+      <c r="E625" t="s">
+        <v>382</v>
+      </c>
+      <c r="F625" t="s">
+        <v>227</v>
+      </c>
+      <c r="G625" t="s">
+        <v>229</v>
+      </c>
+      <c r="I625">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J625" t="s">
+        <v>335</v>
+      </c>
+      <c r="K625" t="s">
+        <v>335</v>
+      </c>
+      <c r="L625" t="s">
+        <v>334</v>
+      </c>
+      <c r="M625" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>629</v>
+      </c>
+      <c r="B626" s="11">
+        <v>44704</v>
+      </c>
+      <c r="C626" t="s">
+        <v>24</v>
+      </c>
+      <c r="D626" t="s">
+        <v>74</v>
+      </c>
+      <c r="E626" t="s">
+        <v>382</v>
+      </c>
+      <c r="F626" t="s">
+        <v>227</v>
+      </c>
+      <c r="G626" t="s">
+        <v>229</v>
+      </c>
+      <c r="I626">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J626" t="s">
+        <v>335</v>
+      </c>
+      <c r="K626" t="s">
+        <v>335</v>
+      </c>
+      <c r="L626" t="s">
+        <v>334</v>
+      </c>
+      <c r="M626" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>630</v>
+      </c>
+      <c r="B627" s="11">
+        <v>44704</v>
+      </c>
+      <c r="C627" t="s">
+        <v>24</v>
+      </c>
+      <c r="D627" t="s">
+        <v>74</v>
+      </c>
+      <c r="E627" t="s">
+        <v>382</v>
+      </c>
+      <c r="F627" t="s">
+        <v>227</v>
+      </c>
+      <c r="G627" t="s">
+        <v>229</v>
+      </c>
+      <c r="I627">
+        <v>0.01</v>
+      </c>
+      <c r="J627" t="s">
+        <v>335</v>
+      </c>
+      <c r="K627" t="s">
+        <v>335</v>
+      </c>
+      <c r="L627" t="s">
+        <v>334</v>
+      </c>
+      <c r="M627" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>631</v>
+      </c>
+      <c r="B628" s="11">
+        <v>44704</v>
+      </c>
+      <c r="C628" t="s">
+        <v>24</v>
+      </c>
+      <c r="D628" t="s">
+        <v>74</v>
+      </c>
+      <c r="E628" t="s">
+        <v>382</v>
+      </c>
+      <c r="F628" t="s">
+        <v>227</v>
+      </c>
+      <c r="G628" t="s">
+        <v>229</v>
+      </c>
+      <c r="I628">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J628" t="s">
+        <v>335</v>
+      </c>
+      <c r="K628" t="s">
+        <v>335</v>
+      </c>
+      <c r="L628" t="s">
+        <v>334</v>
+      </c>
+      <c r="M628" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>632</v>
+      </c>
+      <c r="B629" s="11">
+        <v>44704</v>
+      </c>
+      <c r="C629" t="s">
+        <v>24</v>
+      </c>
+      <c r="D629" t="s">
+        <v>74</v>
+      </c>
+      <c r="E629" t="s">
+        <v>382</v>
+      </c>
+      <c r="F629" t="s">
+        <v>227</v>
+      </c>
+      <c r="G629" t="s">
+        <v>229</v>
+      </c>
+      <c r="I629">
+        <v>0.01</v>
+      </c>
+      <c r="J629" t="s">
+        <v>335</v>
+      </c>
+      <c r="K629" t="s">
+        <v>335</v>
+      </c>
+      <c r="L629" t="s">
+        <v>334</v>
+      </c>
+      <c r="M629" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>633</v>
+      </c>
+      <c r="B630" s="11">
+        <v>44704</v>
+      </c>
+      <c r="C630" t="s">
+        <v>24</v>
+      </c>
+      <c r="D630" t="s">
+        <v>74</v>
+      </c>
+      <c r="E630" t="s">
+        <v>382</v>
+      </c>
+      <c r="F630" t="s">
+        <v>227</v>
+      </c>
+      <c r="G630" t="s">
+        <v>229</v>
+      </c>
+      <c r="I630">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J630" t="s">
+        <v>335</v>
+      </c>
+      <c r="K630" t="s">
+        <v>335</v>
+      </c>
+      <c r="L630" t="s">
+        <v>334</v>
+      </c>
+      <c r="M630" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>634</v>
+      </c>
+      <c r="B631" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C631" t="s">
+        <v>341</v>
+      </c>
+      <c r="D631" t="s">
+        <v>74</v>
+      </c>
+      <c r="E631" t="s">
+        <v>385</v>
+      </c>
+      <c r="F631" t="s">
+        <v>227</v>
+      </c>
+      <c r="G631" t="s">
+        <v>229</v>
+      </c>
+      <c r="I631">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J631" t="s">
+        <v>335</v>
+      </c>
+      <c r="K631" t="s">
+        <v>335</v>
+      </c>
+      <c r="L631" t="s">
+        <v>334</v>
+      </c>
+      <c r="M631" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>635</v>
+      </c>
+      <c r="B632" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C632" t="s">
+        <v>341</v>
+      </c>
+      <c r="D632" t="s">
+        <v>74</v>
+      </c>
+      <c r="E632" t="s">
+        <v>385</v>
+      </c>
+      <c r="F632" t="s">
+        <v>227</v>
+      </c>
+      <c r="G632" t="s">
+        <v>229</v>
+      </c>
+      <c r="I632">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J632" t="s">
+        <v>335</v>
+      </c>
+      <c r="K632" t="s">
+        <v>335</v>
+      </c>
+      <c r="L632" t="s">
+        <v>334</v>
+      </c>
+      <c r="M632" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>636</v>
+      </c>
+      <c r="B633" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C633" t="s">
+        <v>341</v>
+      </c>
+      <c r="D633" t="s">
+        <v>74</v>
+      </c>
+      <c r="E633" t="s">
+        <v>385</v>
+      </c>
+      <c r="F633" t="s">
+        <v>227</v>
+      </c>
+      <c r="G633" t="s">
+        <v>229</v>
+      </c>
+      <c r="I633">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J633" t="s">
+        <v>335</v>
+      </c>
+      <c r="K633" t="s">
+        <v>335</v>
+      </c>
+      <c r="L633" t="s">
+        <v>334</v>
+      </c>
+      <c r="M633" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>637</v>
+      </c>
+      <c r="B634" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C634" t="s">
+        <v>341</v>
+      </c>
+      <c r="D634" t="s">
+        <v>74</v>
+      </c>
+      <c r="E634" t="s">
+        <v>385</v>
+      </c>
+      <c r="F634" t="s">
+        <v>227</v>
+      </c>
+      <c r="G634" t="s">
+        <v>229</v>
+      </c>
+      <c r="I634">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J634" t="s">
+        <v>335</v>
+      </c>
+      <c r="K634" t="s">
+        <v>335</v>
+      </c>
+      <c r="L634" t="s">
+        <v>334</v>
+      </c>
+      <c r="M634" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>638</v>
+      </c>
+      <c r="B635" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C635" t="s">
+        <v>341</v>
+      </c>
+      <c r="D635" t="s">
+        <v>74</v>
+      </c>
+      <c r="E635" t="s">
+        <v>385</v>
+      </c>
+      <c r="F635" t="s">
+        <v>227</v>
+      </c>
+      <c r="G635" t="s">
+        <v>229</v>
+      </c>
+      <c r="I635">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J635" t="s">
+        <v>335</v>
+      </c>
+      <c r="K635" t="s">
+        <v>335</v>
+      </c>
+      <c r="L635" t="s">
+        <v>334</v>
+      </c>
+      <c r="M635" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>639</v>
+      </c>
+      <c r="B636" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C636" t="s">
+        <v>341</v>
+      </c>
+      <c r="D636" t="s">
+        <v>74</v>
+      </c>
+      <c r="E636" t="s">
+        <v>385</v>
+      </c>
+      <c r="F636" t="s">
+        <v>227</v>
+      </c>
+      <c r="G636" t="s">
+        <v>229</v>
+      </c>
+      <c r="I636">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J636" t="s">
+        <v>335</v>
+      </c>
+      <c r="K636" t="s">
+        <v>335</v>
+      </c>
+      <c r="L636" t="s">
+        <v>334</v>
+      </c>
+      <c r="M636" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>640</v>
+      </c>
+      <c r="B637" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C637" t="s">
+        <v>341</v>
+      </c>
+      <c r="D637" t="s">
+        <v>74</v>
+      </c>
+      <c r="E637" t="s">
+        <v>385</v>
+      </c>
+      <c r="F637" t="s">
+        <v>227</v>
+      </c>
+      <c r="G637" t="s">
+        <v>229</v>
+      </c>
+      <c r="I637">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J637" t="s">
+        <v>335</v>
+      </c>
+      <c r="K637" t="s">
+        <v>335</v>
+      </c>
+      <c r="L637" t="s">
+        <v>334</v>
+      </c>
+      <c r="M637" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>641</v>
+      </c>
+      <c r="B638" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C638" t="s">
+        <v>341</v>
+      </c>
+      <c r="D638" t="s">
+        <v>74</v>
+      </c>
+      <c r="E638" t="s">
+        <v>385</v>
+      </c>
+      <c r="F638" t="s">
+        <v>227</v>
+      </c>
+      <c r="G638" t="s">
+        <v>229</v>
+      </c>
+      <c r="I638">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J638" t="s">
+        <v>335</v>
+      </c>
+      <c r="K638" t="s">
+        <v>335</v>
+      </c>
+      <c r="L638" t="s">
+        <v>334</v>
+      </c>
+      <c r="M638" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>642</v>
+      </c>
+      <c r="B639" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C639" t="s">
+        <v>341</v>
+      </c>
+      <c r="D639" t="s">
+        <v>74</v>
+      </c>
+      <c r="E639" t="s">
+        <v>385</v>
+      </c>
+      <c r="F639" t="s">
+        <v>227</v>
+      </c>
+      <c r="G639" t="s">
+        <v>229</v>
+      </c>
+      <c r="I639">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J639" t="s">
+        <v>335</v>
+      </c>
+      <c r="K639" t="s">
+        <v>335</v>
+      </c>
+      <c r="L639" t="s">
+        <v>334</v>
+      </c>
+      <c r="M639" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>643</v>
+      </c>
+      <c r="B640" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C640" t="s">
+        <v>341</v>
+      </c>
+      <c r="D640" t="s">
+        <v>74</v>
+      </c>
+      <c r="E640" t="s">
+        <v>385</v>
+      </c>
+      <c r="F640" t="s">
+        <v>227</v>
+      </c>
+      <c r="G640" t="s">
+        <v>229</v>
+      </c>
+      <c r="I640">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J640" t="s">
+        <v>335</v>
+      </c>
+      <c r="K640" t="s">
+        <v>335</v>
+      </c>
+      <c r="L640" t="s">
+        <v>334</v>
+      </c>
+      <c r="M640" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>644</v>
+      </c>
+      <c r="B641" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C641" t="s">
+        <v>341</v>
+      </c>
+      <c r="D641" t="s">
+        <v>74</v>
+      </c>
+      <c r="E641" t="s">
+        <v>385</v>
+      </c>
+      <c r="F641" t="s">
+        <v>227</v>
+      </c>
+      <c r="G641" t="s">
+        <v>229</v>
+      </c>
+      <c r="I641">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="J641" t="s">
+        <v>335</v>
+      </c>
+      <c r="K641" t="s">
+        <v>335</v>
+      </c>
+      <c r="L641" t="s">
+        <v>334</v>
+      </c>
+      <c r="M641" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>645</v>
+      </c>
+      <c r="B642" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C642" t="s">
+        <v>341</v>
+      </c>
+      <c r="D642" t="s">
+        <v>74</v>
+      </c>
+      <c r="E642" t="s">
+        <v>385</v>
+      </c>
+      <c r="F642" t="s">
+        <v>227</v>
+      </c>
+      <c r="G642" t="s">
+        <v>229</v>
+      </c>
+      <c r="I642">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J642" t="s">
+        <v>335</v>
+      </c>
+      <c r="K642" t="s">
+        <v>335</v>
+      </c>
+      <c r="L642" t="s">
+        <v>334</v>
+      </c>
+      <c r="M642" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>646</v>
+      </c>
+      <c r="B643" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C643" t="s">
+        <v>341</v>
+      </c>
+      <c r="D643" t="s">
+        <v>74</v>
+      </c>
+      <c r="E643" t="s">
+        <v>385</v>
+      </c>
+      <c r="F643" t="s">
+        <v>227</v>
+      </c>
+      <c r="G643" t="s">
+        <v>229</v>
+      </c>
+      <c r="I643">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J643" t="s">
+        <v>335</v>
+      </c>
+      <c r="K643" t="s">
+        <v>335</v>
+      </c>
+      <c r="L643" t="s">
+        <v>334</v>
+      </c>
+      <c r="M643" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>647</v>
+      </c>
+      <c r="B644" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C644" t="s">
+        <v>341</v>
+      </c>
+      <c r="D644" t="s">
+        <v>74</v>
+      </c>
+      <c r="E644" t="s">
+        <v>385</v>
+      </c>
+      <c r="F644" t="s">
+        <v>227</v>
+      </c>
+      <c r="G644" t="s">
+        <v>229</v>
+      </c>
+      <c r="I644">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J644" t="s">
+        <v>335</v>
+      </c>
+      <c r="K644" t="s">
+        <v>335</v>
+      </c>
+      <c r="L644" t="s">
+        <v>334</v>
+      </c>
+      <c r="M644" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>648</v>
+      </c>
+      <c r="B645" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C645" t="s">
+        <v>341</v>
+      </c>
+      <c r="D645" t="s">
+        <v>74</v>
+      </c>
+      <c r="E645" t="s">
+        <v>385</v>
+      </c>
+      <c r="F645" t="s">
+        <v>227</v>
+      </c>
+      <c r="G645" t="s">
+        <v>229</v>
+      </c>
+      <c r="I645">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J645" t="s">
+        <v>335</v>
+      </c>
+      <c r="K645" t="s">
+        <v>335</v>
+      </c>
+      <c r="L645" t="s">
+        <v>334</v>
+      </c>
+      <c r="M645" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>649</v>
+      </c>
+      <c r="B646" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C646" t="s">
+        <v>341</v>
+      </c>
+      <c r="D646" t="s">
+        <v>74</v>
+      </c>
+      <c r="E646" t="s">
+        <v>385</v>
+      </c>
+      <c r="F646" t="s">
+        <v>227</v>
+      </c>
+      <c r="G646" t="s">
+        <v>229</v>
+      </c>
+      <c r="I646">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J646" t="s">
+        <v>335</v>
+      </c>
+      <c r="K646" t="s">
+        <v>335</v>
+      </c>
+      <c r="L646" t="s">
+        <v>334</v>
+      </c>
+      <c r="M646" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>650</v>
+      </c>
+      <c r="B647" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C647" t="s">
+        <v>341</v>
+      </c>
+      <c r="D647" t="s">
+        <v>74</v>
+      </c>
+      <c r="E647" t="s">
+        <v>385</v>
+      </c>
+      <c r="F647" t="s">
+        <v>227</v>
+      </c>
+      <c r="G647" t="s">
+        <v>229</v>
+      </c>
+      <c r="I647">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J647" t="s">
+        <v>335</v>
+      </c>
+      <c r="K647" t="s">
+        <v>335</v>
+      </c>
+      <c r="L647" t="s">
+        <v>334</v>
+      </c>
+      <c r="M647" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>651</v>
+      </c>
+      <c r="B648" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C648" t="s">
+        <v>341</v>
+      </c>
+      <c r="D648" t="s">
+        <v>74</v>
+      </c>
+      <c r="E648" t="s">
+        <v>385</v>
+      </c>
+      <c r="F648" t="s">
+        <v>227</v>
+      </c>
+      <c r="G648" t="s">
+        <v>229</v>
+      </c>
+      <c r="I648">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J648" t="s">
+        <v>335</v>
+      </c>
+      <c r="K648" t="s">
+        <v>335</v>
+      </c>
+      <c r="L648" t="s">
+        <v>334</v>
+      </c>
+      <c r="M648" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>652</v>
+      </c>
+      <c r="B649" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C649" t="s">
+        <v>341</v>
+      </c>
+      <c r="D649" t="s">
+        <v>74</v>
+      </c>
+      <c r="E649" t="s">
+        <v>385</v>
+      </c>
+      <c r="F649" t="s">
+        <v>227</v>
+      </c>
+      <c r="G649" t="s">
+        <v>229</v>
+      </c>
+      <c r="I649">
+        <v>0.01</v>
+      </c>
+      <c r="J649" t="s">
+        <v>335</v>
+      </c>
+      <c r="K649" t="s">
+        <v>335</v>
+      </c>
+      <c r="L649" t="s">
+        <v>334</v>
+      </c>
+      <c r="M649" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>653</v>
+      </c>
+      <c r="B650" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C650" t="s">
+        <v>341</v>
+      </c>
+      <c r="D650" t="s">
+        <v>74</v>
+      </c>
+      <c r="E650" t="s">
+        <v>385</v>
+      </c>
+      <c r="F650" t="s">
+        <v>227</v>
+      </c>
+      <c r="G650" t="s">
+        <v>229</v>
+      </c>
+      <c r="I650">
+        <v>0.01</v>
+      </c>
+      <c r="J650" t="s">
+        <v>335</v>
+      </c>
+      <c r="K650" t="s">
+        <v>335</v>
+      </c>
+      <c r="L650" t="s">
+        <v>334</v>
+      </c>
+      <c r="M650" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -39043,10 +41398,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1146"/>
+  <dimension ref="A1:I1317"/>
   <sheetViews>
-    <sheetView topLeftCell="A1105" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1129" sqref="H1129"/>
+    <sheetView tabSelected="1" topLeftCell="A1274" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1250" sqref="A1250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72262,6 +74617,4965 @@
         <v>73993.100000000006</v>
       </c>
       <c r="I1146" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>597</v>
+      </c>
+      <c r="B1147">
+        <v>3</v>
+      </c>
+      <c r="C1147">
+        <v>4.806</v>
+      </c>
+      <c r="D1147">
+        <v>7.2409999999999997</v>
+      </c>
+      <c r="E1147">
+        <v>7.694</v>
+      </c>
+      <c r="F1147">
+        <v>160757</v>
+      </c>
+      <c r="G1147">
+        <v>83892</v>
+      </c>
+      <c r="H1147">
+        <v>52187</v>
+      </c>
+      <c r="I1147" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>597</v>
+      </c>
+      <c r="B1148">
+        <v>3</v>
+      </c>
+      <c r="C1148">
+        <v>4.8129999999999997</v>
+      </c>
+      <c r="D1148">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="E1148">
+        <v>7.7030000000000003</v>
+      </c>
+      <c r="F1148">
+        <v>150094</v>
+      </c>
+      <c r="G1148">
+        <v>78314</v>
+      </c>
+      <c r="H1148">
+        <v>48364</v>
+      </c>
+      <c r="I1148" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>597</v>
+      </c>
+      <c r="B1149">
+        <v>3</v>
+      </c>
+      <c r="C1149">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="D1149">
+        <v>7.2409999999999997</v>
+      </c>
+      <c r="E1149">
+        <v>7.7619999999999996</v>
+      </c>
+      <c r="F1149">
+        <v>115894</v>
+      </c>
+      <c r="G1149">
+        <v>60169</v>
+      </c>
+      <c r="H1149">
+        <v>38965</v>
+      </c>
+      <c r="I1149" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>598</v>
+      </c>
+      <c r="B1150">
+        <v>3</v>
+      </c>
+      <c r="C1150">
+        <v>4.774</v>
+      </c>
+      <c r="D1150">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1150">
+        <v>7.63</v>
+      </c>
+      <c r="F1150">
+        <v>213307</v>
+      </c>
+      <c r="G1150">
+        <v>85254</v>
+      </c>
+      <c r="H1150">
+        <v>108599</v>
+      </c>
+      <c r="I1150" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>598</v>
+      </c>
+      <c r="B1151">
+        <v>3</v>
+      </c>
+      <c r="C1151">
+        <v>4.7939999999999996</v>
+      </c>
+      <c r="D1151">
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="E1151">
+        <v>7.6589999999999998</v>
+      </c>
+      <c r="F1151">
+        <v>189630</v>
+      </c>
+      <c r="G1151">
+        <v>75853</v>
+      </c>
+      <c r="H1151">
+        <v>97870</v>
+      </c>
+      <c r="I1151" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1152">
+        <v>598</v>
+      </c>
+      <c r="B1152">
+        <v>3</v>
+      </c>
+      <c r="C1152">
+        <v>4.83</v>
+      </c>
+      <c r="D1152">
+        <v>7.2359999999999998</v>
+      </c>
+      <c r="E1152">
+        <v>7.7050000000000001</v>
+      </c>
+      <c r="F1152">
+        <v>103458</v>
+      </c>
+      <c r="G1152">
+        <v>41775</v>
+      </c>
+      <c r="H1152">
+        <v>52031</v>
+      </c>
+      <c r="I1152" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1153">
+        <v>599</v>
+      </c>
+      <c r="B1153">
+        <v>3</v>
+      </c>
+      <c r="C1153">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D1153">
+        <v>7.2329999999999997</v>
+      </c>
+      <c r="E1153">
+        <v>7.6539999999999999</v>
+      </c>
+      <c r="F1153">
+        <v>225049</v>
+      </c>
+      <c r="G1153">
+        <v>93204</v>
+      </c>
+      <c r="H1153">
+        <v>106101</v>
+      </c>
+      <c r="I1153" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1154">
+        <v>599</v>
+      </c>
+      <c r="B1154">
+        <v>3</v>
+      </c>
+      <c r="C1154">
+        <v>4.7990000000000004</v>
+      </c>
+      <c r="D1154">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="E1154">
+        <v>7.6660000000000004</v>
+      </c>
+      <c r="F1154">
+        <v>163965</v>
+      </c>
+      <c r="G1154">
+        <v>67909</v>
+      </c>
+      <c r="H1154">
+        <v>77537</v>
+      </c>
+      <c r="I1154" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1155">
+        <v>599</v>
+      </c>
+      <c r="B1155">
+        <v>3</v>
+      </c>
+      <c r="C1155">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="D1155">
+        <v>7.218</v>
+      </c>
+      <c r="E1155">
+        <v>7.67</v>
+      </c>
+      <c r="F1155">
+        <v>131077</v>
+      </c>
+      <c r="G1155">
+        <v>54751</v>
+      </c>
+      <c r="H1155">
+        <v>60032</v>
+      </c>
+      <c r="I1155" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1156">
+        <v>600</v>
+      </c>
+      <c r="B1156">
+        <v>3</v>
+      </c>
+      <c r="C1156">
+        <v>4.8070000000000004</v>
+      </c>
+      <c r="D1156">
+        <v>7.2270000000000003</v>
+      </c>
+      <c r="E1156">
+        <v>7.6859999999999999</v>
+      </c>
+      <c r="F1156">
+        <v>139238</v>
+      </c>
+      <c r="G1156">
+        <v>73666</v>
+      </c>
+      <c r="H1156">
+        <v>47060</v>
+      </c>
+      <c r="I1156" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1157">
+        <v>600</v>
+      </c>
+      <c r="B1157">
+        <v>3</v>
+      </c>
+      <c r="C1157">
+        <v>4.83</v>
+      </c>
+      <c r="D1157">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="E1157">
+        <v>7.758</v>
+      </c>
+      <c r="F1157">
+        <v>107362</v>
+      </c>
+      <c r="G1157">
+        <v>56443</v>
+      </c>
+      <c r="H1157">
+        <v>36331</v>
+      </c>
+      <c r="I1157" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1158">
+        <v>600</v>
+      </c>
+      <c r="B1158">
+        <v>3</v>
+      </c>
+      <c r="C1158">
+        <v>4.8170000000000002</v>
+      </c>
+      <c r="D1158">
+        <v>7.218</v>
+      </c>
+      <c r="E1158">
+        <v>7.7350000000000003</v>
+      </c>
+      <c r="F1158">
+        <v>103161</v>
+      </c>
+      <c r="G1158">
+        <v>55160</v>
+      </c>
+      <c r="H1158">
+        <v>36601</v>
+      </c>
+      <c r="I1158" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1159">
+        <v>601</v>
+      </c>
+      <c r="B1159">
+        <v>3</v>
+      </c>
+      <c r="C1159">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D1159">
+        <v>7.21</v>
+      </c>
+      <c r="E1159">
+        <v>7.6349999999999998</v>
+      </c>
+      <c r="F1159">
+        <v>173367</v>
+      </c>
+      <c r="G1159">
+        <v>72976</v>
+      </c>
+      <c r="H1159">
+        <v>92070</v>
+      </c>
+      <c r="I1159" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1160">
+        <v>601</v>
+      </c>
+      <c r="B1160">
+        <v>3</v>
+      </c>
+      <c r="C1160">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="D1160">
+        <v>7.21</v>
+      </c>
+      <c r="E1160">
+        <v>7.6319999999999997</v>
+      </c>
+      <c r="F1160">
+        <v>184155</v>
+      </c>
+      <c r="G1160">
+        <v>78879</v>
+      </c>
+      <c r="H1160">
+        <v>97770</v>
+      </c>
+      <c r="I1160" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1161">
+        <v>601</v>
+      </c>
+      <c r="B1161">
+        <v>3</v>
+      </c>
+      <c r="C1161">
+        <v>4.819</v>
+      </c>
+      <c r="D1161">
+        <v>7.218</v>
+      </c>
+      <c r="E1161">
+        <v>7.6790000000000003</v>
+      </c>
+      <c r="F1161">
+        <v>101640</v>
+      </c>
+      <c r="G1161">
+        <v>42973</v>
+      </c>
+      <c r="H1161">
+        <v>53376</v>
+      </c>
+      <c r="I1161" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1162">
+        <v>602</v>
+      </c>
+      <c r="B1162">
+        <v>3</v>
+      </c>
+      <c r="C1162">
+        <v>4.7729999999999997</v>
+      </c>
+      <c r="D1162">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1162">
+        <v>7.6319999999999997</v>
+      </c>
+      <c r="F1162">
+        <v>213912</v>
+      </c>
+      <c r="G1162">
+        <v>86037</v>
+      </c>
+      <c r="H1162">
+        <v>101240</v>
+      </c>
+      <c r="I1162" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1163">
+        <v>602</v>
+      </c>
+      <c r="B1163">
+        <v>3</v>
+      </c>
+      <c r="C1163">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="D1163">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1163">
+        <v>7.64</v>
+      </c>
+      <c r="F1163">
+        <v>187996</v>
+      </c>
+      <c r="G1163">
+        <v>75780</v>
+      </c>
+      <c r="H1163">
+        <v>89364</v>
+      </c>
+      <c r="I1163" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1164">
+        <v>602</v>
+      </c>
+      <c r="B1164">
+        <v>3</v>
+      </c>
+      <c r="C1164">
+        <v>4.6719999999999997</v>
+      </c>
+      <c r="D1164">
+        <v>7.1180000000000003</v>
+      </c>
+      <c r="E1164">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="F1164">
+        <v>109045</v>
+      </c>
+      <c r="G1164">
+        <v>44482</v>
+      </c>
+      <c r="H1164">
+        <v>49694</v>
+      </c>
+      <c r="I1164" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1165">
+        <v>603</v>
+      </c>
+      <c r="B1165">
+        <v>3</v>
+      </c>
+      <c r="C1165">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="D1165">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="E1165">
+        <v>7.81</v>
+      </c>
+      <c r="F1165">
+        <v>62081</v>
+      </c>
+      <c r="G1165">
+        <v>78332</v>
+      </c>
+      <c r="H1165">
+        <v>17400</v>
+      </c>
+      <c r="I1165" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1166">
+        <v>603</v>
+      </c>
+      <c r="B1166">
+        <v>3</v>
+      </c>
+      <c r="C1166">
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="D1166">
+        <v>7.2220000000000004</v>
+      </c>
+      <c r="E1166">
+        <v>7.7960000000000003</v>
+      </c>
+      <c r="F1166">
+        <v>59172</v>
+      </c>
+      <c r="G1166">
+        <v>74915</v>
+      </c>
+      <c r="H1166">
+        <v>16705</v>
+      </c>
+      <c r="I1166" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1167">
+        <v>603</v>
+      </c>
+      <c r="B1167">
+        <v>3</v>
+      </c>
+      <c r="C1167">
+        <v>4.851</v>
+      </c>
+      <c r="D1167">
+        <v>7.2220000000000004</v>
+      </c>
+      <c r="E1167">
+        <v>7.7910000000000004</v>
+      </c>
+      <c r="F1167">
+        <v>59661</v>
+      </c>
+      <c r="G1167">
+        <v>76314</v>
+      </c>
+      <c r="H1167">
+        <v>17113</v>
+      </c>
+      <c r="I1167" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1168">
+        <v>604</v>
+      </c>
+      <c r="B1168">
+        <v>3</v>
+      </c>
+      <c r="C1168">
+        <v>4.8419999999999996</v>
+      </c>
+      <c r="D1168">
+        <v>7.218</v>
+      </c>
+      <c r="E1168">
+        <v>7.7759999999999998</v>
+      </c>
+      <c r="F1168">
+        <v>68608</v>
+      </c>
+      <c r="G1168">
+        <v>79732</v>
+      </c>
+      <c r="H1168">
+        <v>20031</v>
+      </c>
+      <c r="I1168" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1169">
+        <v>604</v>
+      </c>
+      <c r="B1169">
+        <v>3</v>
+      </c>
+      <c r="C1169">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="D1169">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="E1169">
+        <v>7.7830000000000004</v>
+      </c>
+      <c r="F1169">
+        <v>56901</v>
+      </c>
+      <c r="G1169">
+        <v>66038</v>
+      </c>
+      <c r="H1169">
+        <v>16828</v>
+      </c>
+      <c r="I1169" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1170">
+        <v>604</v>
+      </c>
+      <c r="B1170">
+        <v>3</v>
+      </c>
+      <c r="C1170">
+        <v>4.8639999999999999</v>
+      </c>
+      <c r="D1170">
+        <v>7.234</v>
+      </c>
+      <c r="E1170">
+        <v>7.8079999999999998</v>
+      </c>
+      <c r="F1170">
+        <v>53904</v>
+      </c>
+      <c r="G1170">
+        <v>62925</v>
+      </c>
+      <c r="H1170">
+        <v>15031</v>
+      </c>
+      <c r="I1170" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1171">
+        <v>605</v>
+      </c>
+      <c r="B1171">
+        <v>3</v>
+      </c>
+      <c r="C1171">
+        <v>4.8029999999999999</v>
+      </c>
+      <c r="D1171">
+        <v>7.2249999999999996</v>
+      </c>
+      <c r="E1171">
+        <v>7.6689999999999996</v>
+      </c>
+      <c r="F1171">
+        <v>144813</v>
+      </c>
+      <c r="G1171">
+        <v>56239</v>
+      </c>
+      <c r="H1171">
+        <v>74444</v>
+      </c>
+      <c r="I1171" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1172">
+        <v>605</v>
+      </c>
+      <c r="B1172">
+        <v>3</v>
+      </c>
+      <c r="C1172">
+        <v>4.78</v>
+      </c>
+      <c r="D1172">
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="E1172">
+        <v>7.6349999999999998</v>
+      </c>
+      <c r="F1172">
+        <v>175188</v>
+      </c>
+      <c r="G1172">
+        <v>67728</v>
+      </c>
+      <c r="H1172">
+        <v>89176</v>
+      </c>
+      <c r="I1172" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1173">
+        <v>605</v>
+      </c>
+      <c r="B1173">
+        <v>3</v>
+      </c>
+      <c r="C1173">
+        <v>4.774</v>
+      </c>
+      <c r="D1173">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="E1173">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="F1173">
+        <v>196246</v>
+      </c>
+      <c r="G1173">
+        <v>76262</v>
+      </c>
+      <c r="H1173">
+        <v>99150</v>
+      </c>
+      <c r="I1173" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1174">
+        <v>606</v>
+      </c>
+      <c r="B1174">
+        <v>3</v>
+      </c>
+      <c r="C1174">
+        <v>4.774</v>
+      </c>
+      <c r="D1174">
+        <v>7.2119999999999997</v>
+      </c>
+      <c r="E1174">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="F1174">
+        <v>204001</v>
+      </c>
+      <c r="G1174">
+        <v>80135</v>
+      </c>
+      <c r="H1174">
+        <v>81955</v>
+      </c>
+      <c r="I1174" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1175">
+        <v>606</v>
+      </c>
+      <c r="B1175">
+        <v>3</v>
+      </c>
+      <c r="C1175">
+        <v>4.8150000000000004</v>
+      </c>
+      <c r="D1175">
+        <v>7.242</v>
+      </c>
+      <c r="E1175">
+        <v>7.702</v>
+      </c>
+      <c r="F1175">
+        <v>140653</v>
+      </c>
+      <c r="G1175">
+        <v>53980</v>
+      </c>
+      <c r="H1175">
+        <v>56179</v>
+      </c>
+      <c r="I1175" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1176">
+        <v>606</v>
+      </c>
+      <c r="B1176">
+        <v>3</v>
+      </c>
+      <c r="C1176">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D1176">
+        <v>7.22</v>
+      </c>
+      <c r="E1176">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="F1176">
+        <v>190548</v>
+      </c>
+      <c r="G1176">
+        <v>72638</v>
+      </c>
+      <c r="H1176">
+        <v>76279</v>
+      </c>
+      <c r="I1176" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1177">
+        <v>607</v>
+      </c>
+      <c r="B1177">
+        <v>3</v>
+      </c>
+      <c r="C1177">
+        <v>4.7949999999999999</v>
+      </c>
+      <c r="D1177">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="E1177">
+        <v>7.657</v>
+      </c>
+      <c r="F1177">
+        <v>155990</v>
+      </c>
+      <c r="G1177">
+        <v>60989</v>
+      </c>
+      <c r="H1177">
+        <v>72990</v>
+      </c>
+      <c r="I1177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1178">
+        <v>607</v>
+      </c>
+      <c r="B1178">
+        <v>3</v>
+      </c>
+      <c r="C1178">
+        <v>4.8079999999999998</v>
+      </c>
+      <c r="D1178">
+        <v>7.2210000000000001</v>
+      </c>
+      <c r="E1178">
+        <v>7.681</v>
+      </c>
+      <c r="F1178">
+        <v>123058</v>
+      </c>
+      <c r="G1178">
+        <v>50606</v>
+      </c>
+      <c r="H1178">
+        <v>52124</v>
+      </c>
+      <c r="I1178" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1179">
+        <v>607</v>
+      </c>
+      <c r="B1179">
+        <v>3</v>
+      </c>
+      <c r="C1179">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="D1179">
+        <v>7.2130000000000001</v>
+      </c>
+      <c r="E1179">
+        <v>7.641</v>
+      </c>
+      <c r="F1179">
+        <v>176585</v>
+      </c>
+      <c r="G1179">
+        <v>70011</v>
+      </c>
+      <c r="H1179">
+        <v>84194</v>
+      </c>
+      <c r="I1179" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1180">
+        <v>608</v>
+      </c>
+      <c r="B1180">
+        <v>3</v>
+      </c>
+      <c r="C1180">
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="D1180">
+        <v>7.218</v>
+      </c>
+      <c r="E1180">
+        <v>7.641</v>
+      </c>
+      <c r="F1180">
+        <v>213209</v>
+      </c>
+      <c r="G1180">
+        <v>75387</v>
+      </c>
+      <c r="H1180">
+        <v>92407</v>
+      </c>
+      <c r="I1180" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1181">
+        <v>608</v>
+      </c>
+      <c r="B1181">
+        <v>3</v>
+      </c>
+      <c r="C1181">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1181">
+        <v>7.2149999999999999</v>
+      </c>
+      <c r="E1181">
+        <v>7.6539999999999999</v>
+      </c>
+      <c r="F1181">
+        <v>170677</v>
+      </c>
+      <c r="G1181">
+        <v>62144</v>
+      </c>
+      <c r="H1181">
+        <v>69900</v>
+      </c>
+      <c r="I1181" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1182">
+        <v>608</v>
+      </c>
+      <c r="B1182">
+        <v>3</v>
+      </c>
+      <c r="C1182">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="D1182">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1182">
+        <v>7.6479999999999997</v>
+      </c>
+      <c r="F1182">
+        <v>178633</v>
+      </c>
+      <c r="G1182">
+        <v>63266</v>
+      </c>
+      <c r="H1182">
+        <v>77291</v>
+      </c>
+      <c r="I1182" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1183">
+        <v>609</v>
+      </c>
+      <c r="B1183">
+        <v>3</v>
+      </c>
+      <c r="C1183">
+        <v>4.8109999999999999</v>
+      </c>
+      <c r="D1183">
+        <v>7.2210000000000001</v>
+      </c>
+      <c r="E1183">
+        <v>7.673</v>
+      </c>
+      <c r="F1183">
+        <v>119238</v>
+      </c>
+      <c r="G1183">
+        <v>48380</v>
+      </c>
+      <c r="H1183">
+        <v>57935</v>
+      </c>
+      <c r="I1183" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1184">
+        <v>609</v>
+      </c>
+      <c r="B1184">
+        <v>3</v>
+      </c>
+      <c r="C1184">
+        <v>4.8019999999999996</v>
+      </c>
+      <c r="D1184">
+        <v>7.2370000000000001</v>
+      </c>
+      <c r="E1184">
+        <v>7.6669999999999998</v>
+      </c>
+      <c r="F1184">
+        <v>163910</v>
+      </c>
+      <c r="G1184">
+        <v>67942</v>
+      </c>
+      <c r="H1184">
+        <v>85173</v>
+      </c>
+      <c r="I1184" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1185">
+        <v>609</v>
+      </c>
+      <c r="B1185">
+        <v>3</v>
+      </c>
+      <c r="C1185">
+        <v>4.806</v>
+      </c>
+      <c r="D1185">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="E1185">
+        <v>7.6669999999999998</v>
+      </c>
+      <c r="F1185">
+        <v>124555</v>
+      </c>
+      <c r="G1185">
+        <v>51955</v>
+      </c>
+      <c r="H1185">
+        <v>61830</v>
+      </c>
+      <c r="I1185" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1186">
+        <v>610</v>
+      </c>
+      <c r="B1186">
+        <v>3</v>
+      </c>
+      <c r="C1186">
+        <v>4.82</v>
+      </c>
+      <c r="D1186">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="E1186">
+        <v>7.7080000000000002</v>
+      </c>
+      <c r="F1186">
+        <v>107489</v>
+      </c>
+      <c r="G1186">
+        <v>39448</v>
+      </c>
+      <c r="H1186">
+        <v>45913</v>
+      </c>
+      <c r="I1186" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1187">
+        <v>610</v>
+      </c>
+      <c r="B1187">
+        <v>3</v>
+      </c>
+      <c r="C1187">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1187">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1187">
+        <v>7.6479999999999997</v>
+      </c>
+      <c r="F1187">
+        <v>172402</v>
+      </c>
+      <c r="G1187">
+        <v>63238</v>
+      </c>
+      <c r="H1187">
+        <v>76825</v>
+      </c>
+      <c r="I1187" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1188">
+        <v>610</v>
+      </c>
+      <c r="B1188">
+        <v>3</v>
+      </c>
+      <c r="C1188">
+        <v>4.766</v>
+      </c>
+      <c r="D1188">
+        <v>7.202</v>
+      </c>
+      <c r="E1188">
+        <v>7.6390000000000002</v>
+      </c>
+      <c r="F1188">
+        <v>175760</v>
+      </c>
+      <c r="G1188">
+        <v>67131</v>
+      </c>
+      <c r="H1188">
+        <v>81128</v>
+      </c>
+      <c r="I1188" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1189">
+        <v>611</v>
+      </c>
+      <c r="B1189">
+        <v>3</v>
+      </c>
+      <c r="C1189">
+        <v>4.78</v>
+      </c>
+      <c r="D1189">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1189">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="F1189">
+        <v>185937</v>
+      </c>
+      <c r="G1189">
+        <v>73319</v>
+      </c>
+      <c r="H1189">
+        <v>98940</v>
+      </c>
+      <c r="I1189" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1190">
+        <v>611</v>
+      </c>
+      <c r="B1190">
+        <v>3</v>
+      </c>
+      <c r="C1190">
+        <v>4.782</v>
+      </c>
+      <c r="D1190">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="E1190">
+        <v>7.6319999999999997</v>
+      </c>
+      <c r="F1190">
+        <v>171488</v>
+      </c>
+      <c r="G1190">
+        <v>67130</v>
+      </c>
+      <c r="H1190">
+        <v>90624</v>
+      </c>
+      <c r="I1190" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1191">
+        <v>611</v>
+      </c>
+      <c r="B1191">
+        <v>3</v>
+      </c>
+      <c r="C1191">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D1191">
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="E1191">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="F1191">
+        <v>166976</v>
+      </c>
+      <c r="G1191">
+        <v>68278</v>
+      </c>
+      <c r="H1191">
+        <v>91995</v>
+      </c>
+      <c r="I1191" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1192">
+        <v>612</v>
+      </c>
+      <c r="B1192">
+        <v>3</v>
+      </c>
+      <c r="C1192">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D1192">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="E1192">
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="F1192">
+        <v>113377</v>
+      </c>
+      <c r="G1192">
+        <v>42831</v>
+      </c>
+      <c r="H1192">
+        <v>51090</v>
+      </c>
+      <c r="I1192" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1193">
+        <v>612</v>
+      </c>
+      <c r="B1193">
+        <v>3</v>
+      </c>
+      <c r="C1193">
+        <v>4.7889999999999997</v>
+      </c>
+      <c r="D1193">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1193">
+        <v>7.6449999999999996</v>
+      </c>
+      <c r="F1193">
+        <v>155004</v>
+      </c>
+      <c r="G1193">
+        <v>59881</v>
+      </c>
+      <c r="H1193">
+        <v>73520</v>
+      </c>
+      <c r="I1193" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1194">
+        <v>612</v>
+      </c>
+      <c r="B1194">
+        <v>3</v>
+      </c>
+      <c r="C1194">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="D1194">
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="E1194">
+        <v>7.6159999999999997</v>
+      </c>
+      <c r="F1194">
+        <v>220383</v>
+      </c>
+      <c r="G1194">
+        <v>85178</v>
+      </c>
+      <c r="H1194">
+        <v>106985</v>
+      </c>
+      <c r="I1194" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1195">
+        <v>613</v>
+      </c>
+      <c r="B1195">
+        <v>3</v>
+      </c>
+      <c r="C1195">
+        <v>4.8079999999999998</v>
+      </c>
+      <c r="D1195">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="E1195">
+        <v>7.6769999999999996</v>
+      </c>
+      <c r="F1195">
+        <v>169101</v>
+      </c>
+      <c r="G1195">
+        <v>64678</v>
+      </c>
+      <c r="H1195">
+        <v>85439</v>
+      </c>
+      <c r="I1195" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1196">
+        <v>613</v>
+      </c>
+      <c r="B1196">
+        <v>3</v>
+      </c>
+      <c r="C1196">
+        <v>4.8040000000000003</v>
+      </c>
+      <c r="D1196">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="E1196">
+        <v>7.67</v>
+      </c>
+      <c r="F1196">
+        <v>168532</v>
+      </c>
+      <c r="G1196">
+        <v>64795</v>
+      </c>
+      <c r="H1196">
+        <v>86496</v>
+      </c>
+      <c r="I1196" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1197">
+        <v>613</v>
+      </c>
+      <c r="B1197">
+        <v>3</v>
+      </c>
+      <c r="C1197">
+        <v>4.806</v>
+      </c>
+      <c r="D1197">
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="E1197">
+        <v>7.6689999999999996</v>
+      </c>
+      <c r="F1197">
+        <v>156549</v>
+      </c>
+      <c r="G1197">
+        <v>60063</v>
+      </c>
+      <c r="H1197">
+        <v>79823</v>
+      </c>
+      <c r="I1197" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1198">
+        <v>614</v>
+      </c>
+      <c r="B1198">
+        <v>3</v>
+      </c>
+      <c r="C1198">
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="D1198">
+        <v>7.22</v>
+      </c>
+      <c r="E1198">
+        <v>7.6520000000000001</v>
+      </c>
+      <c r="F1198">
+        <v>171861</v>
+      </c>
+      <c r="G1198">
+        <v>64913</v>
+      </c>
+      <c r="H1198">
+        <v>79918</v>
+      </c>
+      <c r="I1198" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1199">
+        <v>614</v>
+      </c>
+      <c r="B1199">
+        <v>3</v>
+      </c>
+      <c r="C1199">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1199">
+        <v>7.226</v>
+      </c>
+      <c r="E1199">
+        <v>7.6550000000000002</v>
+      </c>
+      <c r="F1199">
+        <v>188405</v>
+      </c>
+      <c r="G1199">
+        <v>69250</v>
+      </c>
+      <c r="H1199">
+        <v>87083</v>
+      </c>
+      <c r="I1199" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1200">
+        <v>614</v>
+      </c>
+      <c r="B1200">
+        <v>3</v>
+      </c>
+      <c r="C1200">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1200">
+        <v>7.23</v>
+      </c>
+      <c r="E1200">
+        <v>7.6509999999999998</v>
+      </c>
+      <c r="F1200">
+        <v>203161</v>
+      </c>
+      <c r="G1200">
+        <v>76055</v>
+      </c>
+      <c r="H1200">
+        <v>93929</v>
+      </c>
+      <c r="I1200" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1201">
+        <v>615</v>
+      </c>
+      <c r="B1201">
+        <v>3</v>
+      </c>
+      <c r="C1201">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1201">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="E1201">
+        <v>7.64</v>
+      </c>
+      <c r="F1201">
+        <v>178961</v>
+      </c>
+      <c r="G1201">
+        <v>69863</v>
+      </c>
+      <c r="H1201">
+        <v>95086</v>
+      </c>
+      <c r="I1201" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1202">
+        <v>615</v>
+      </c>
+      <c r="B1202">
+        <v>3</v>
+      </c>
+      <c r="C1202">
+        <v>4.79</v>
+      </c>
+      <c r="D1202">
+        <v>7.2249999999999996</v>
+      </c>
+      <c r="E1202">
+        <v>7.6459999999999999</v>
+      </c>
+      <c r="F1202">
+        <v>177537</v>
+      </c>
+      <c r="G1202">
+        <v>71080</v>
+      </c>
+      <c r="H1202">
+        <v>94274</v>
+      </c>
+      <c r="I1202" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1203">
+        <v>615</v>
+      </c>
+      <c r="B1203">
+        <v>3</v>
+      </c>
+      <c r="C1203">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1203">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1203">
+        <v>7.6360000000000001</v>
+      </c>
+      <c r="F1203">
+        <v>167823</v>
+      </c>
+      <c r="G1203">
+        <v>67414</v>
+      </c>
+      <c r="H1203">
+        <v>89578</v>
+      </c>
+      <c r="I1203" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1204">
+        <v>616</v>
+      </c>
+      <c r="B1204">
+        <v>3</v>
+      </c>
+      <c r="C1204">
+        <v>4.7889999999999997</v>
+      </c>
+      <c r="D1204">
+        <v>7.2290000000000001</v>
+      </c>
+      <c r="E1204">
+        <v>7.657</v>
+      </c>
+      <c r="F1204">
+        <v>192062</v>
+      </c>
+      <c r="G1204">
+        <v>74356</v>
+      </c>
+      <c r="H1204">
+        <v>86421</v>
+      </c>
+      <c r="I1204" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1205">
+        <v>616</v>
+      </c>
+      <c r="B1205">
+        <v>3</v>
+      </c>
+      <c r="C1205">
+        <v>4.7640000000000002</v>
+      </c>
+      <c r="D1205">
+        <v>7.21</v>
+      </c>
+      <c r="E1205">
+        <v>7.6239999999999997</v>
+      </c>
+      <c r="F1205">
+        <v>230013</v>
+      </c>
+      <c r="G1205">
+        <v>89630</v>
+      </c>
+      <c r="H1205">
+        <v>105459</v>
+      </c>
+      <c r="I1205" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1206">
+        <v>616</v>
+      </c>
+      <c r="B1206">
+        <v>3</v>
+      </c>
+      <c r="C1206">
+        <v>4.782</v>
+      </c>
+      <c r="D1206">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="E1206">
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="F1206">
+        <v>187047</v>
+      </c>
+      <c r="G1206">
+        <v>71673</v>
+      </c>
+      <c r="H1206">
+        <v>84646</v>
+      </c>
+      <c r="I1206" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1207">
+        <v>617</v>
+      </c>
+      <c r="B1207">
+        <v>3</v>
+      </c>
+      <c r="C1207">
+        <v>4.7949999999999999</v>
+      </c>
+      <c r="D1207">
+        <v>7.2220000000000004</v>
+      </c>
+      <c r="E1207">
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="F1207">
+        <v>161512</v>
+      </c>
+      <c r="G1207">
+        <v>73581</v>
+      </c>
+      <c r="H1207">
+        <v>90351</v>
+      </c>
+      <c r="I1207" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1208">
+        <v>617</v>
+      </c>
+      <c r="B1208">
+        <v>3</v>
+      </c>
+      <c r="C1208">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="D1208">
+        <v>7.21</v>
+      </c>
+      <c r="E1208">
+        <v>7.6120000000000001</v>
+      </c>
+      <c r="F1208">
+        <v>206784</v>
+      </c>
+      <c r="G1208">
+        <v>96349</v>
+      </c>
+      <c r="H1208">
+        <v>120272</v>
+      </c>
+      <c r="I1208" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1209">
+        <v>617</v>
+      </c>
+      <c r="B1209">
+        <v>3</v>
+      </c>
+      <c r="C1209">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="D1209">
+        <v>7.2119999999999997</v>
+      </c>
+      <c r="E1209">
+        <v>7.6180000000000003</v>
+      </c>
+      <c r="F1209">
+        <v>196771</v>
+      </c>
+      <c r="G1209">
+        <v>91018</v>
+      </c>
+      <c r="H1209">
+        <v>113877</v>
+      </c>
+      <c r="I1209" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1210">
+        <v>618</v>
+      </c>
+      <c r="B1210">
+        <v>3</v>
+      </c>
+      <c r="C1210">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D1210">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1210">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="F1210">
+        <v>171219</v>
+      </c>
+      <c r="G1210">
+        <v>78041</v>
+      </c>
+      <c r="H1210">
+        <v>89142</v>
+      </c>
+      <c r="I1210" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1211">
+        <v>618</v>
+      </c>
+      <c r="B1211">
+        <v>3</v>
+      </c>
+      <c r="C1211">
+        <v>4.758</v>
+      </c>
+      <c r="D1211">
+        <v>7.2039999999999997</v>
+      </c>
+      <c r="E1211">
+        <v>7.6050000000000004</v>
+      </c>
+      <c r="F1211">
+        <v>233462</v>
+      </c>
+      <c r="G1211">
+        <v>105673</v>
+      </c>
+      <c r="H1211">
+        <v>121365</v>
+      </c>
+      <c r="I1211" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1212">
+        <v>618</v>
+      </c>
+      <c r="B1212">
+        <v>3</v>
+      </c>
+      <c r="C1212">
+        <v>4.7619999999999996</v>
+      </c>
+      <c r="D1212">
+        <v>7.2069999999999999</v>
+      </c>
+      <c r="E1212">
+        <v>7.6070000000000002</v>
+      </c>
+      <c r="F1212">
+        <v>233853</v>
+      </c>
+      <c r="G1212">
+        <v>105862</v>
+      </c>
+      <c r="H1212">
+        <v>123349</v>
+      </c>
+      <c r="I1212" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1213">
+        <v>619</v>
+      </c>
+      <c r="B1213">
+        <v>3</v>
+      </c>
+      <c r="C1213">
+        <v>4.782</v>
+      </c>
+      <c r="D1213">
+        <v>7.2130000000000001</v>
+      </c>
+      <c r="E1213">
+        <v>7.6360000000000001</v>
+      </c>
+      <c r="F1213">
+        <v>174777</v>
+      </c>
+      <c r="G1213">
+        <v>71754</v>
+      </c>
+      <c r="H1213">
+        <v>87131</v>
+      </c>
+      <c r="I1213" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1214">
+        <v>619</v>
+      </c>
+      <c r="B1214">
+        <v>3</v>
+      </c>
+      <c r="C1214">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="D1214">
+        <v>7.2130000000000001</v>
+      </c>
+      <c r="E1214">
+        <v>7.6360000000000001</v>
+      </c>
+      <c r="F1214">
+        <v>174901</v>
+      </c>
+      <c r="G1214">
+        <v>72101</v>
+      </c>
+      <c r="H1214">
+        <v>86897</v>
+      </c>
+      <c r="I1214" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1215">
+        <v>619</v>
+      </c>
+      <c r="B1215">
+        <v>3</v>
+      </c>
+      <c r="C1215">
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="D1215">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1215">
+        <v>7.6369999999999996</v>
+      </c>
+      <c r="F1215">
+        <v>171265</v>
+      </c>
+      <c r="G1215">
+        <v>71230</v>
+      </c>
+      <c r="H1215">
+        <v>87045</v>
+      </c>
+      <c r="I1215" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1216">
+        <v>620</v>
+      </c>
+      <c r="B1216">
+        <v>3</v>
+      </c>
+      <c r="C1216">
+        <v>4.7889999999999997</v>
+      </c>
+      <c r="D1216">
+        <v>7.2149999999999999</v>
+      </c>
+      <c r="E1216">
+        <v>7.649</v>
+      </c>
+      <c r="F1216">
+        <v>159073</v>
+      </c>
+      <c r="G1216">
+        <v>61426</v>
+      </c>
+      <c r="H1216">
+        <v>72298</v>
+      </c>
+      <c r="I1216" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1217">
+        <v>620</v>
+      </c>
+      <c r="B1217">
+        <v>3</v>
+      </c>
+      <c r="C1217">
+        <v>4.7889999999999997</v>
+      </c>
+      <c r="D1217">
+        <v>7.22</v>
+      </c>
+      <c r="E1217">
+        <v>7.649</v>
+      </c>
+      <c r="F1217">
+        <v>169946</v>
+      </c>
+      <c r="G1217">
+        <v>66031</v>
+      </c>
+      <c r="H1217">
+        <v>77849</v>
+      </c>
+      <c r="I1217" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1218">
+        <v>620</v>
+      </c>
+      <c r="B1218">
+        <v>3</v>
+      </c>
+      <c r="C1218">
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="D1218">
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="E1218">
+        <v>7.641</v>
+      </c>
+      <c r="F1218">
+        <v>159649</v>
+      </c>
+      <c r="G1218">
+        <v>61655</v>
+      </c>
+      <c r="H1218">
+        <v>72423</v>
+      </c>
+      <c r="I1218" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1219">
+        <v>621</v>
+      </c>
+      <c r="B1219">
+        <v>3</v>
+      </c>
+      <c r="C1219">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="D1219">
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="E1219">
+        <v>7.6210000000000004</v>
+      </c>
+      <c r="F1219">
+        <v>201017</v>
+      </c>
+      <c r="G1219">
+        <v>81365</v>
+      </c>
+      <c r="H1219">
+        <v>97552</v>
+      </c>
+      <c r="I1219" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1220">
+        <v>621</v>
+      </c>
+      <c r="B1220">
+        <v>3</v>
+      </c>
+      <c r="C1220">
+        <v>4.7720000000000002</v>
+      </c>
+      <c r="D1220">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1220">
+        <v>7.625</v>
+      </c>
+      <c r="F1220">
+        <v>203107</v>
+      </c>
+      <c r="G1220">
+        <v>82875</v>
+      </c>
+      <c r="H1220">
+        <v>99526</v>
+      </c>
+      <c r="I1220" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1221">
+        <v>621</v>
+      </c>
+      <c r="B1221">
+        <v>3</v>
+      </c>
+      <c r="C1221">
+        <v>4.7619999999999996</v>
+      </c>
+      <c r="D1221">
+        <v>7.2039999999999997</v>
+      </c>
+      <c r="E1221">
+        <v>7.6120000000000001</v>
+      </c>
+      <c r="F1221">
+        <v>218556</v>
+      </c>
+      <c r="G1221">
+        <v>90172</v>
+      </c>
+      <c r="H1221">
+        <v>108642</v>
+      </c>
+      <c r="I1221" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1222">
+        <v>622</v>
+      </c>
+      <c r="B1222">
+        <v>3</v>
+      </c>
+      <c r="C1222">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="D1222">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="E1222">
+        <v>7.6580000000000004</v>
+      </c>
+      <c r="F1222">
+        <v>222666</v>
+      </c>
+      <c r="G1222">
+        <v>88067</v>
+      </c>
+      <c r="H1222">
+        <v>109747</v>
+      </c>
+      <c r="I1222" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1223">
+        <v>622</v>
+      </c>
+      <c r="B1223">
+        <v>3</v>
+      </c>
+      <c r="C1223">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="D1223">
+        <v>7.2220000000000004</v>
+      </c>
+      <c r="E1223">
+        <v>7.64</v>
+      </c>
+      <c r="F1223">
+        <v>221585</v>
+      </c>
+      <c r="G1223">
+        <v>87131</v>
+      </c>
+      <c r="H1223">
+        <v>108300</v>
+      </c>
+      <c r="I1223" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1224">
+        <v>622</v>
+      </c>
+      <c r="B1224">
+        <v>3</v>
+      </c>
+      <c r="C1224">
+        <v>4.7770000000000001</v>
+      </c>
+      <c r="D1224">
+        <v>7.2119999999999997</v>
+      </c>
+      <c r="E1224">
+        <v>7.6349999999999998</v>
+      </c>
+      <c r="F1224">
+        <v>194142</v>
+      </c>
+      <c r="G1224">
+        <v>76735</v>
+      </c>
+      <c r="H1224">
+        <v>93974</v>
+      </c>
+      <c r="I1224" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1225">
+        <v>623</v>
+      </c>
+      <c r="B1225">
+        <v>3</v>
+      </c>
+      <c r="C1225">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1225">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="E1225">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="F1225">
+        <v>200863</v>
+      </c>
+      <c r="G1225">
+        <v>80981</v>
+      </c>
+      <c r="H1225">
+        <v>108532</v>
+      </c>
+      <c r="I1225" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1226">
+        <v>623</v>
+      </c>
+      <c r="B1226">
+        <v>3</v>
+      </c>
+      <c r="C1226">
+        <v>4.78</v>
+      </c>
+      <c r="D1226">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1226">
+        <v>7.6340000000000003</v>
+      </c>
+      <c r="F1226">
+        <v>204472</v>
+      </c>
+      <c r="G1226">
+        <v>82598</v>
+      </c>
+      <c r="H1226">
+        <v>110031</v>
+      </c>
+      <c r="I1226" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1227">
+        <v>623</v>
+      </c>
+      <c r="B1227">
+        <v>3</v>
+      </c>
+      <c r="C1227">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="D1227">
+        <v>7.218</v>
+      </c>
+      <c r="E1227">
+        <v>7.641</v>
+      </c>
+      <c r="F1227">
+        <v>173118</v>
+      </c>
+      <c r="G1227">
+        <v>69864</v>
+      </c>
+      <c r="H1227">
+        <v>91599</v>
+      </c>
+      <c r="I1227" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1228">
+        <v>624</v>
+      </c>
+      <c r="B1228">
+        <v>3</v>
+      </c>
+      <c r="C1228">
+        <v>4.7729999999999997</v>
+      </c>
+      <c r="D1228">
+        <v>7.2069999999999999</v>
+      </c>
+      <c r="E1228">
+        <v>7.6260000000000003</v>
+      </c>
+      <c r="F1228">
+        <v>191094</v>
+      </c>
+      <c r="G1228">
+        <v>79722</v>
+      </c>
+      <c r="H1228">
+        <v>96582</v>
+      </c>
+      <c r="I1228" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1229">
+        <v>624</v>
+      </c>
+      <c r="B1229">
+        <v>3</v>
+      </c>
+      <c r="C1229">
+        <v>4.774</v>
+      </c>
+      <c r="D1229">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1229">
+        <v>7.6280000000000001</v>
+      </c>
+      <c r="F1229">
+        <v>201053</v>
+      </c>
+      <c r="G1229">
+        <v>83081</v>
+      </c>
+      <c r="H1229">
+        <v>100283</v>
+      </c>
+      <c r="I1229" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1230">
+        <v>624</v>
+      </c>
+      <c r="B1230">
+        <v>3</v>
+      </c>
+      <c r="C1230">
+        <v>4.7770000000000001</v>
+      </c>
+      <c r="D1230">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1230">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="F1230">
+        <v>188851</v>
+      </c>
+      <c r="G1230">
+        <v>78789</v>
+      </c>
+      <c r="H1230">
+        <v>93020</v>
+      </c>
+      <c r="I1230" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1231">
+        <v>625</v>
+      </c>
+      <c r="B1231">
+        <v>3</v>
+      </c>
+      <c r="C1231">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="D1231">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="E1231">
+        <v>7.6180000000000003</v>
+      </c>
+      <c r="F1231">
+        <v>213332</v>
+      </c>
+      <c r="G1231">
+        <v>79395</v>
+      </c>
+      <c r="H1231">
+        <v>109202</v>
+      </c>
+      <c r="I1231" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1232">
+        <v>625</v>
+      </c>
+      <c r="B1232">
+        <v>3</v>
+      </c>
+      <c r="C1232">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="D1232">
+        <v>7.2060000000000004</v>
+      </c>
+      <c r="E1232">
+        <v>7.617</v>
+      </c>
+      <c r="F1232">
+        <v>211196</v>
+      </c>
+      <c r="G1232">
+        <v>79218</v>
+      </c>
+      <c r="H1232">
+        <v>108579</v>
+      </c>
+      <c r="I1232" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1233">
+        <v>625</v>
+      </c>
+      <c r="B1233">
+        <v>3</v>
+      </c>
+      <c r="C1233">
+        <v>4.7770000000000001</v>
+      </c>
+      <c r="D1233">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="E1233">
+        <v>7.6369999999999996</v>
+      </c>
+      <c r="F1233">
+        <v>223280</v>
+      </c>
+      <c r="G1233">
+        <v>83750</v>
+      </c>
+      <c r="H1233">
+        <v>116000</v>
+      </c>
+      <c r="I1233" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1234">
+        <v>626</v>
+      </c>
+      <c r="B1234">
+        <v>3</v>
+      </c>
+      <c r="C1234">
+        <v>4.774</v>
+      </c>
+      <c r="D1234">
+        <v>7.2210000000000001</v>
+      </c>
+      <c r="E1234">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="F1234">
+        <v>222437</v>
+      </c>
+      <c r="G1234">
+        <v>83934</v>
+      </c>
+      <c r="H1234">
+        <v>118402</v>
+      </c>
+      <c r="I1234" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1235">
+        <v>626</v>
+      </c>
+      <c r="B1235">
+        <v>3</v>
+      </c>
+      <c r="C1235">
+        <v>4.766</v>
+      </c>
+      <c r="D1235">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="E1235">
+        <v>7.6139999999999999</v>
+      </c>
+      <c r="F1235">
+        <v>219860</v>
+      </c>
+      <c r="G1235">
+        <v>81838</v>
+      </c>
+      <c r="H1235">
+        <v>117392</v>
+      </c>
+      <c r="I1235" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1236">
+        <v>626</v>
+      </c>
+      <c r="B1236">
+        <v>3</v>
+      </c>
+      <c r="C1236">
+        <v>4.7640000000000002</v>
+      </c>
+      <c r="D1236">
+        <v>7.2039999999999997</v>
+      </c>
+      <c r="E1236">
+        <v>7.6079999999999997</v>
+      </c>
+      <c r="F1236">
+        <v>216557</v>
+      </c>
+      <c r="G1236">
+        <v>81407</v>
+      </c>
+      <c r="H1236">
+        <v>117759</v>
+      </c>
+      <c r="I1236" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1237">
+        <v>627</v>
+      </c>
+      <c r="B1237">
+        <v>3</v>
+      </c>
+      <c r="C1237">
+        <v>4.7729999999999997</v>
+      </c>
+      <c r="D1237">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1237">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="F1237">
+        <v>207947</v>
+      </c>
+      <c r="G1237">
+        <v>84253</v>
+      </c>
+      <c r="H1237">
+        <v>98999</v>
+      </c>
+      <c r="I1237" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1238">
+        <v>627</v>
+      </c>
+      <c r="B1238">
+        <v>3</v>
+      </c>
+      <c r="C1238">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D1238">
+        <v>7.2030000000000003</v>
+      </c>
+      <c r="E1238">
+        <v>7.6230000000000002</v>
+      </c>
+      <c r="F1238">
+        <v>188571</v>
+      </c>
+      <c r="G1238">
+        <v>76655</v>
+      </c>
+      <c r="H1238">
+        <v>91330</v>
+      </c>
+      <c r="I1238" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1239">
+        <v>627</v>
+      </c>
+      <c r="B1239">
+        <v>3</v>
+      </c>
+      <c r="C1239">
+        <v>4.7720000000000002</v>
+      </c>
+      <c r="D1239">
+        <v>7.2069999999999999</v>
+      </c>
+      <c r="E1239">
+        <v>7.6280000000000001</v>
+      </c>
+      <c r="F1239">
+        <v>191398</v>
+      </c>
+      <c r="G1239">
+        <v>77415</v>
+      </c>
+      <c r="H1239">
+        <v>88414</v>
+      </c>
+      <c r="I1239" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1240">
+        <v>628</v>
+      </c>
+      <c r="B1240">
+        <v>3</v>
+      </c>
+      <c r="C1240">
+        <v>4.758</v>
+      </c>
+      <c r="D1240">
+        <v>7.2060000000000004</v>
+      </c>
+      <c r="E1240">
+        <v>7.6120000000000001</v>
+      </c>
+      <c r="F1240">
+        <v>241055</v>
+      </c>
+      <c r="G1240">
+        <v>93052</v>
+      </c>
+      <c r="H1240">
+        <v>113785</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1241">
+        <v>628</v>
+      </c>
+      <c r="B1241">
+        <v>3</v>
+      </c>
+      <c r="C1241">
+        <v>4.7649999999999997</v>
+      </c>
+      <c r="D1241">
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="E1241">
+        <v>7.6189999999999998</v>
+      </c>
+      <c r="F1241">
+        <v>214446</v>
+      </c>
+      <c r="G1241">
+        <v>82606</v>
+      </c>
+      <c r="H1241">
+        <v>100856</v>
+      </c>
+      <c r="I1241" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1242">
+        <v>628</v>
+      </c>
+      <c r="B1242">
+        <v>3</v>
+      </c>
+      <c r="C1242">
+        <v>4.7949999999999999</v>
+      </c>
+      <c r="D1242">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="E1242">
+        <v>7.6680000000000001</v>
+      </c>
+      <c r="F1242">
+        <v>212993</v>
+      </c>
+      <c r="G1242">
+        <v>81615</v>
+      </c>
+      <c r="H1242">
+        <v>100738</v>
+      </c>
+      <c r="I1242" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1243">
+        <v>629</v>
+      </c>
+      <c r="B1243">
+        <v>3</v>
+      </c>
+      <c r="C1243">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1243">
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="E1243">
+        <v>7.6539999999999999</v>
+      </c>
+      <c r="F1243">
+        <v>214731</v>
+      </c>
+      <c r="G1243">
+        <v>82734</v>
+      </c>
+      <c r="H1243">
+        <v>105505</v>
+      </c>
+      <c r="I1243" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1244">
+        <v>629</v>
+      </c>
+      <c r="B1244">
+        <v>3</v>
+      </c>
+      <c r="C1244">
+        <v>4.8090000000000002</v>
+      </c>
+      <c r="D1244">
+        <v>7.2380000000000004</v>
+      </c>
+      <c r="E1244">
+        <v>7.6769999999999996</v>
+      </c>
+      <c r="F1244">
+        <v>154372</v>
+      </c>
+      <c r="G1244">
+        <v>59686</v>
+      </c>
+      <c r="H1244">
+        <v>75115</v>
+      </c>
+      <c r="I1244" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1245">
+        <v>629</v>
+      </c>
+      <c r="B1245">
+        <v>3</v>
+      </c>
+      <c r="C1245">
+        <v>4.79</v>
+      </c>
+      <c r="D1245">
+        <v>7.2370000000000001</v>
+      </c>
+      <c r="E1245">
+        <v>7.6550000000000002</v>
+      </c>
+      <c r="F1245">
+        <v>205940</v>
+      </c>
+      <c r="G1245">
+        <v>78848</v>
+      </c>
+      <c r="H1245">
+        <v>102630</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1246">
+        <v>630</v>
+      </c>
+      <c r="B1246">
+        <v>3</v>
+      </c>
+      <c r="C1246">
+        <v>4.7720000000000002</v>
+      </c>
+      <c r="D1246">
+        <v>7.2270000000000003</v>
+      </c>
+      <c r="E1246">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="F1246">
+        <v>247212</v>
+      </c>
+      <c r="G1246">
+        <v>98488</v>
+      </c>
+      <c r="H1246">
+        <v>123991</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1247">
+        <v>630</v>
+      </c>
+      <c r="B1247">
+        <v>3</v>
+      </c>
+      <c r="C1247">
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="D1247">
+        <v>7.234</v>
+      </c>
+      <c r="E1247">
+        <v>7.6470000000000002</v>
+      </c>
+      <c r="F1247">
+        <v>217210</v>
+      </c>
+      <c r="G1247">
+        <v>86349</v>
+      </c>
+      <c r="H1247">
+        <v>109573</v>
+      </c>
+      <c r="I1247" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1248">
+        <v>630</v>
+      </c>
+      <c r="B1248">
+        <v>3</v>
+      </c>
+      <c r="C1248">
+        <v>4.7789999999999999</v>
+      </c>
+      <c r="D1248">
+        <v>7.23</v>
+      </c>
+      <c r="E1248">
+        <v>7.6390000000000002</v>
+      </c>
+      <c r="F1248">
+        <v>226878</v>
+      </c>
+      <c r="G1248">
+        <v>89841</v>
+      </c>
+      <c r="H1248">
+        <v>113802</v>
+      </c>
+      <c r="I1248" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1249">
+        <v>631</v>
+      </c>
+      <c r="B1249">
+        <v>3</v>
+      </c>
+      <c r="C1249">
+        <v>4.7789999999999999</v>
+      </c>
+      <c r="D1249">
+        <v>7.2240000000000002</v>
+      </c>
+      <c r="E1249">
+        <v>7.6319999999999997</v>
+      </c>
+      <c r="F1249">
+        <v>210613</v>
+      </c>
+      <c r="G1249">
+        <v>88711</v>
+      </c>
+      <c r="H1249">
+        <v>115357</v>
+      </c>
+      <c r="I1249" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1250">
+        <v>631</v>
+      </c>
+      <c r="B1250">
+        <v>3</v>
+      </c>
+      <c r="C1250">
+        <v>4.7779999999999996</v>
+      </c>
+      <c r="D1250">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="E1250">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="F1250">
+        <v>181243</v>
+      </c>
+      <c r="G1250">
+        <v>77046</v>
+      </c>
+      <c r="H1250">
+        <v>95267</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1251">
+        <v>631</v>
+      </c>
+      <c r="B1251">
+        <v>3</v>
+      </c>
+      <c r="C1251">
+        <v>4.7720000000000002</v>
+      </c>
+      <c r="D1251">
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="E1251">
+        <v>7.6180000000000003</v>
+      </c>
+      <c r="F1251">
+        <v>202258</v>
+      </c>
+      <c r="G1251">
+        <v>85276</v>
+      </c>
+      <c r="H1251">
+        <v>111105</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1252">
+        <v>632</v>
+      </c>
+      <c r="B1252">
+        <v>3</v>
+      </c>
+      <c r="C1252">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="D1252">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1252">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="F1252">
+        <v>190552</v>
+      </c>
+      <c r="G1252">
+        <v>76612</v>
+      </c>
+      <c r="H1252">
+        <v>96098</v>
+      </c>
+      <c r="I1252" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1253">
+        <v>632</v>
+      </c>
+      <c r="B1253">
+        <v>3</v>
+      </c>
+      <c r="C1253">
+        <v>4.7789999999999999</v>
+      </c>
+      <c r="D1253">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1253">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="F1253">
+        <v>184790</v>
+      </c>
+      <c r="G1253">
+        <v>73890</v>
+      </c>
+      <c r="H1253">
+        <v>92849</v>
+      </c>
+      <c r="I1253" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1254">
+        <v>632</v>
+      </c>
+      <c r="B1254">
+        <v>3</v>
+      </c>
+      <c r="C1254">
+        <v>4.79</v>
+      </c>
+      <c r="D1254">
+        <v>7.226</v>
+      </c>
+      <c r="E1254">
+        <v>7.6479999999999997</v>
+      </c>
+      <c r="F1254">
+        <v>182950</v>
+      </c>
+      <c r="G1254">
+        <v>73102</v>
+      </c>
+      <c r="H1254">
+        <v>91678</v>
+      </c>
+      <c r="I1254" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1255">
+        <v>633</v>
+      </c>
+      <c r="B1255">
+        <v>3</v>
+      </c>
+      <c r="C1255">
+        <v>4.782</v>
+      </c>
+      <c r="D1255">
+        <v>7.2270000000000003</v>
+      </c>
+      <c r="E1255">
+        <v>7.6390000000000002</v>
+      </c>
+      <c r="F1255">
+        <v>212471</v>
+      </c>
+      <c r="G1255">
+        <v>83794</v>
+      </c>
+      <c r="H1255">
+        <v>109212</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1256">
+        <v>633</v>
+      </c>
+      <c r="B1256">
+        <v>3</v>
+      </c>
+      <c r="C1256">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="D1256">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1256">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="F1256">
+        <v>189581</v>
+      </c>
+      <c r="G1256">
+        <v>75405</v>
+      </c>
+      <c r="H1256">
+        <v>97324</v>
+      </c>
+      <c r="I1256" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1257">
+        <v>633</v>
+      </c>
+      <c r="B1257">
+        <v>3</v>
+      </c>
+      <c r="C1257">
+        <v>4.7789999999999999</v>
+      </c>
+      <c r="D1257">
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="E1257">
+        <v>7.6280000000000001</v>
+      </c>
+      <c r="F1257">
+        <v>179894</v>
+      </c>
+      <c r="G1257">
+        <v>70980</v>
+      </c>
+      <c r="H1257">
+        <v>91216</v>
+      </c>
+      <c r="I1257" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1258">
+        <v>634</v>
+      </c>
+      <c r="B1258">
+        <v>3</v>
+      </c>
+      <c r="C1258">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="D1258">
+        <v>7.2229999999999999</v>
+      </c>
+      <c r="E1258">
+        <v>7.6369999999999996</v>
+      </c>
+      <c r="F1258">
+        <v>201768</v>
+      </c>
+      <c r="G1258">
+        <v>84369</v>
+      </c>
+      <c r="H1258">
+        <v>100779</v>
+      </c>
+      <c r="I1258" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1259">
+        <v>634</v>
+      </c>
+      <c r="B1259">
+        <v>3</v>
+      </c>
+      <c r="C1259">
+        <v>4.798</v>
+      </c>
+      <c r="D1259">
+        <v>7.2370000000000001</v>
+      </c>
+      <c r="E1259">
+        <v>7.6669999999999998</v>
+      </c>
+      <c r="F1259">
+        <v>172845</v>
+      </c>
+      <c r="G1259">
+        <v>74157</v>
+      </c>
+      <c r="H1259">
+        <v>81061</v>
+      </c>
+      <c r="I1259" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1260">
+        <v>634</v>
+      </c>
+      <c r="B1260">
+        <v>3</v>
+      </c>
+      <c r="C1260">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1260">
+        <v>7.22</v>
+      </c>
+      <c r="E1260">
+        <v>7.6440000000000001</v>
+      </c>
+      <c r="F1260">
+        <v>177019</v>
+      </c>
+      <c r="G1260">
+        <v>74567</v>
+      </c>
+      <c r="H1260">
+        <v>86762</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1261">
+        <v>635</v>
+      </c>
+      <c r="B1261">
+        <v>3</v>
+      </c>
+      <c r="C1261">
+        <v>4.7949999999999999</v>
+      </c>
+      <c r="D1261">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="E1261">
+        <v>7.6740000000000004</v>
+      </c>
+      <c r="F1261">
+        <v>202064</v>
+      </c>
+      <c r="G1261">
+        <v>74259</v>
+      </c>
+      <c r="H1261">
+        <v>88050</v>
+      </c>
+      <c r="I1261" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1262">
+        <v>635</v>
+      </c>
+      <c r="B1262">
+        <v>3</v>
+      </c>
+      <c r="C1262">
+        <v>4.7729999999999997</v>
+      </c>
+      <c r="D1262">
+        <v>7.218</v>
+      </c>
+      <c r="E1262">
+        <v>7.64</v>
+      </c>
+      <c r="F1262">
+        <v>212454</v>
+      </c>
+      <c r="G1262">
+        <v>78143</v>
+      </c>
+      <c r="H1262">
+        <v>94080</v>
+      </c>
+      <c r="I1262" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1263">
+        <v>635</v>
+      </c>
+      <c r="B1263">
+        <v>3</v>
+      </c>
+      <c r="C1263">
+        <v>4.7720000000000002</v>
+      </c>
+      <c r="D1263">
+        <v>7.22</v>
+      </c>
+      <c r="E1263">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="F1263">
+        <v>222305</v>
+      </c>
+      <c r="G1263">
+        <v>81532</v>
+      </c>
+      <c r="H1263">
+        <v>97679</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1264">
+        <v>636</v>
+      </c>
+      <c r="B1264">
+        <v>3</v>
+      </c>
+      <c r="C1264">
+        <v>4.782</v>
+      </c>
+      <c r="D1264">
+        <v>7.218</v>
+      </c>
+      <c r="E1264">
+        <v>7.6369999999999996</v>
+      </c>
+      <c r="F1264">
+        <v>186721</v>
+      </c>
+      <c r="G1264">
+        <v>73872</v>
+      </c>
+      <c r="H1264">
+        <v>95558</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1265">
+        <v>636</v>
+      </c>
+      <c r="B1265">
+        <v>3</v>
+      </c>
+      <c r="C1265">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1265">
+        <v>7.226</v>
+      </c>
+      <c r="E1265">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="F1265">
+        <v>191430</v>
+      </c>
+      <c r="G1265">
+        <v>75394</v>
+      </c>
+      <c r="H1265">
+        <v>99212</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1266">
+        <v>636</v>
+      </c>
+      <c r="B1266">
+        <v>3</v>
+      </c>
+      <c r="C1266">
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="D1266">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="E1266">
+        <v>7.63</v>
+      </c>
+      <c r="F1266">
+        <v>203089</v>
+      </c>
+      <c r="G1266">
+        <v>79695</v>
+      </c>
+      <c r="H1266">
+        <v>105797</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1267">
+        <v>637</v>
+      </c>
+      <c r="B1267">
+        <v>3</v>
+      </c>
+      <c r="C1267">
+        <v>4.774</v>
+      </c>
+      <c r="D1267">
+        <v>7.2229999999999999</v>
+      </c>
+      <c r="E1267">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="F1267">
+        <v>221803</v>
+      </c>
+      <c r="G1267">
+        <v>83219</v>
+      </c>
+      <c r="H1267">
+        <v>93659</v>
+      </c>
+      <c r="I1267" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1268">
+        <v>637</v>
+      </c>
+      <c r="B1268">
+        <v>3</v>
+      </c>
+      <c r="C1268">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="D1268">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="E1268">
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="F1268">
+        <v>205423</v>
+      </c>
+      <c r="G1268">
+        <v>77870</v>
+      </c>
+      <c r="H1268">
+        <v>83542</v>
+      </c>
+      <c r="I1268" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1269">
+        <v>637</v>
+      </c>
+      <c r="B1269">
+        <v>3</v>
+      </c>
+      <c r="C1269">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="D1269">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="E1269">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="F1269">
+        <v>228921</v>
+      </c>
+      <c r="G1269">
+        <v>85540</v>
+      </c>
+      <c r="H1269">
+        <v>99554</v>
+      </c>
+      <c r="I1269" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1270">
+        <v>638</v>
+      </c>
+      <c r="B1270">
+        <v>3</v>
+      </c>
+      <c r="C1270">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="D1270">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="E1270">
+        <v>7.64</v>
+      </c>
+      <c r="F1270">
+        <v>188367</v>
+      </c>
+      <c r="G1270">
+        <v>77812</v>
+      </c>
+      <c r="H1270">
+        <v>87991</v>
+      </c>
+      <c r="I1270" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1271">
+        <v>638</v>
+      </c>
+      <c r="B1271">
+        <v>3</v>
+      </c>
+      <c r="C1271">
+        <v>4.782</v>
+      </c>
+      <c r="D1271">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="E1271">
+        <v>7.6390000000000002</v>
+      </c>
+      <c r="F1271">
+        <v>179689</v>
+      </c>
+      <c r="G1271">
+        <v>75014</v>
+      </c>
+      <c r="H1271">
+        <v>83948</v>
+      </c>
+      <c r="I1271" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1272">
+        <v>638</v>
+      </c>
+      <c r="B1272">
+        <v>3</v>
+      </c>
+      <c r="C1272">
+        <v>4.7889999999999997</v>
+      </c>
+      <c r="D1272">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="E1272">
+        <v>7.6520000000000001</v>
+      </c>
+      <c r="F1272">
+        <v>142628</v>
+      </c>
+      <c r="G1272">
+        <v>59829</v>
+      </c>
+      <c r="H1272">
+        <v>64726</v>
+      </c>
+      <c r="I1272" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1273">
+        <v>639</v>
+      </c>
+      <c r="B1273">
+        <v>3</v>
+      </c>
+      <c r="C1273">
+        <v>4.7729999999999997</v>
+      </c>
+      <c r="D1273">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="E1273">
+        <v>7.6349999999999998</v>
+      </c>
+      <c r="F1273">
+        <v>207069</v>
+      </c>
+      <c r="G1273">
+        <v>77480</v>
+      </c>
+      <c r="H1273">
+        <v>89936</v>
+      </c>
+      <c r="I1273" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1274">
+        <v>639</v>
+      </c>
+      <c r="B1274">
+        <v>3</v>
+      </c>
+      <c r="C1274">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="D1274">
+        <v>7.218</v>
+      </c>
+      <c r="E1274">
+        <v>7.633</v>
+      </c>
+      <c r="F1274">
+        <v>219942</v>
+      </c>
+      <c r="G1274">
+        <v>82195</v>
+      </c>
+      <c r="H1274">
+        <v>97419</v>
+      </c>
+      <c r="I1274" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1275">
+        <v>639</v>
+      </c>
+      <c r="B1275">
+        <v>3</v>
+      </c>
+      <c r="C1275">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D1275">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1275">
+        <v>7.633</v>
+      </c>
+      <c r="F1275">
+        <v>204746</v>
+      </c>
+      <c r="G1275">
+        <v>77255</v>
+      </c>
+      <c r="H1275">
+        <v>85608</v>
+      </c>
+      <c r="I1275" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1276">
+        <v>640</v>
+      </c>
+      <c r="B1276">
+        <v>3</v>
+      </c>
+      <c r="C1276">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D1276">
+        <v>7.21</v>
+      </c>
+      <c r="E1276">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="F1276">
+        <v>204459</v>
+      </c>
+      <c r="G1276">
+        <v>83429</v>
+      </c>
+      <c r="H1276">
+        <v>91384</v>
+      </c>
+      <c r="I1276" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1277">
+        <v>640</v>
+      </c>
+      <c r="B1277">
+        <v>3</v>
+      </c>
+      <c r="C1277">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="D1277">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="E1277">
+        <v>7.6440000000000001</v>
+      </c>
+      <c r="F1277">
+        <v>186734</v>
+      </c>
+      <c r="G1277">
+        <v>76197</v>
+      </c>
+      <c r="H1277">
+        <v>81445</v>
+      </c>
+      <c r="I1277" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1278">
+        <v>640</v>
+      </c>
+      <c r="B1278">
+        <v>3</v>
+      </c>
+      <c r="C1278">
+        <v>4.782</v>
+      </c>
+      <c r="D1278">
+        <v>7.21</v>
+      </c>
+      <c r="E1278">
+        <v>7.64</v>
+      </c>
+      <c r="F1278">
+        <v>168229</v>
+      </c>
+      <c r="G1278">
+        <v>68757</v>
+      </c>
+      <c r="H1278">
+        <v>75249</v>
+      </c>
+      <c r="I1278" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1279">
+        <v>641</v>
+      </c>
+      <c r="B1279">
+        <v>3</v>
+      </c>
+      <c r="C1279">
+        <v>4.78</v>
+      </c>
+      <c r="D1279">
+        <v>7.21</v>
+      </c>
+      <c r="E1279">
+        <v>7.6369999999999996</v>
+      </c>
+      <c r="F1279">
+        <v>174424</v>
+      </c>
+      <c r="G1279">
+        <v>67142</v>
+      </c>
+      <c r="H1279">
+        <v>79780</v>
+      </c>
+      <c r="I1279" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1280">
+        <v>641</v>
+      </c>
+      <c r="B1280">
+        <v>3</v>
+      </c>
+      <c r="C1280">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="D1280">
+        <v>7.2119999999999997</v>
+      </c>
+      <c r="E1280">
+        <v>7.6369999999999996</v>
+      </c>
+      <c r="F1280">
+        <v>190812</v>
+      </c>
+      <c r="G1280">
+        <v>73886</v>
+      </c>
+      <c r="H1280">
+        <v>83364</v>
+      </c>
+      <c r="I1280" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1281">
+        <v>641</v>
+      </c>
+      <c r="B1281">
+        <v>3</v>
+      </c>
+      <c r="C1281">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="D1281">
+        <v>7.2069999999999999</v>
+      </c>
+      <c r="E1281">
+        <v>7.625</v>
+      </c>
+      <c r="F1281">
+        <v>201629</v>
+      </c>
+      <c r="G1281">
+        <v>77175</v>
+      </c>
+      <c r="H1281">
+        <v>93938</v>
+      </c>
+      <c r="I1281" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1282">
+        <v>642</v>
+      </c>
+      <c r="B1282">
+        <v>3</v>
+      </c>
+      <c r="C1282">
+        <v>4.7770000000000001</v>
+      </c>
+      <c r="D1282">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1282">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="F1282">
+        <v>194538</v>
+      </c>
+      <c r="G1282">
+        <v>82392</v>
+      </c>
+      <c r="H1282">
+        <v>100886</v>
+      </c>
+      <c r="I1282" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1283">
+        <v>642</v>
+      </c>
+      <c r="B1283">
+        <v>3</v>
+      </c>
+      <c r="C1283">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D1283">
+        <v>7.21</v>
+      </c>
+      <c r="E1283">
+        <v>7.6340000000000003</v>
+      </c>
+      <c r="F1283">
+        <v>163642</v>
+      </c>
+      <c r="G1283">
+        <v>69506</v>
+      </c>
+      <c r="H1283">
+        <v>82485</v>
+      </c>
+      <c r="I1283" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1284">
+        <v>642</v>
+      </c>
+      <c r="B1284">
+        <v>3</v>
+      </c>
+      <c r="C1284">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="D1284">
+        <v>7.2060000000000004</v>
+      </c>
+      <c r="E1284">
+        <v>7.6180000000000003</v>
+      </c>
+      <c r="F1284">
+        <v>196976</v>
+      </c>
+      <c r="G1284">
+        <v>83455</v>
+      </c>
+      <c r="H1284">
+        <v>101862</v>
+      </c>
+      <c r="I1284" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1285">
+        <v>643</v>
+      </c>
+      <c r="B1285">
+        <v>3</v>
+      </c>
+      <c r="C1285">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D1285">
+        <v>7.22</v>
+      </c>
+      <c r="E1285">
+        <v>7.6440000000000001</v>
+      </c>
+      <c r="F1285">
+        <v>180518</v>
+      </c>
+      <c r="G1285">
+        <v>76627</v>
+      </c>
+      <c r="H1285">
+        <v>84919</v>
+      </c>
+      <c r="I1285" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1286">
+        <v>643</v>
+      </c>
+      <c r="B1286">
+        <v>3</v>
+      </c>
+      <c r="C1286">
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="D1286">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="E1286">
+        <v>7.641</v>
+      </c>
+      <c r="F1286">
+        <v>150387</v>
+      </c>
+      <c r="G1286">
+        <v>63817</v>
+      </c>
+      <c r="H1286">
+        <v>71914</v>
+      </c>
+      <c r="I1286" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1287">
+        <v>643</v>
+      </c>
+      <c r="B1287">
+        <v>3</v>
+      </c>
+      <c r="C1287">
+        <v>4.782</v>
+      </c>
+      <c r="D1287">
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="E1287">
+        <v>7.6360000000000001</v>
+      </c>
+      <c r="F1287">
+        <v>165135</v>
+      </c>
+      <c r="G1287">
+        <v>69929</v>
+      </c>
+      <c r="H1287">
+        <v>77136</v>
+      </c>
+      <c r="I1287" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1288">
+        <v>644</v>
+      </c>
+      <c r="B1288">
+        <v>3</v>
+      </c>
+      <c r="C1288">
+        <v>4.8109999999999999</v>
+      </c>
+      <c r="D1288">
+        <v>7.2489999999999997</v>
+      </c>
+      <c r="E1288">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="F1288">
+        <v>164100</v>
+      </c>
+      <c r="G1288">
+        <v>69043</v>
+      </c>
+      <c r="H1288">
+        <v>81197</v>
+      </c>
+      <c r="I1288" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1289">
+        <v>644</v>
+      </c>
+      <c r="B1289">
+        <v>3</v>
+      </c>
+      <c r="C1289">
+        <v>4.7919999999999998</v>
+      </c>
+      <c r="D1289">
+        <v>7.2229999999999999</v>
+      </c>
+      <c r="E1289">
+        <v>7.6529999999999996</v>
+      </c>
+      <c r="F1289">
+        <v>165715</v>
+      </c>
+      <c r="G1289">
+        <v>69941</v>
+      </c>
+      <c r="H1289">
+        <v>80793</v>
+      </c>
+      <c r="I1289" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1290">
+        <v>644</v>
+      </c>
+      <c r="B1290">
+        <v>3</v>
+      </c>
+      <c r="C1290">
+        <v>4.7930000000000001</v>
+      </c>
+      <c r="D1290">
+        <v>7.2249999999999996</v>
+      </c>
+      <c r="E1290">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="F1290">
+        <v>168726</v>
+      </c>
+      <c r="G1290">
+        <v>71266</v>
+      </c>
+      <c r="H1290">
+        <v>79518</v>
+      </c>
+      <c r="I1290" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1291">
+        <v>645</v>
+      </c>
+      <c r="B1291">
+        <v>3</v>
+      </c>
+      <c r="C1291">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="D1291">
+        <v>7.22</v>
+      </c>
+      <c r="E1291">
+        <v>7.641</v>
+      </c>
+      <c r="F1291">
+        <v>192274</v>
+      </c>
+      <c r="G1291">
+        <v>78547</v>
+      </c>
+      <c r="H1291">
+        <v>90589</v>
+      </c>
+      <c r="I1291" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1292">
+        <v>645</v>
+      </c>
+      <c r="B1292">
+        <v>3</v>
+      </c>
+      <c r="C1292">
+        <v>4.7889999999999997</v>
+      </c>
+      <c r="D1292">
+        <v>7.23</v>
+      </c>
+      <c r="E1292">
+        <v>7.6520000000000001</v>
+      </c>
+      <c r="F1292">
+        <v>192217</v>
+      </c>
+      <c r="G1292">
+        <v>78669</v>
+      </c>
+      <c r="H1292">
+        <v>91767</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1293">
+        <v>645</v>
+      </c>
+      <c r="B1293">
+        <v>3</v>
+      </c>
+      <c r="C1293">
+        <v>4.7930000000000001</v>
+      </c>
+      <c r="D1293">
+        <v>7.2210000000000001</v>
+      </c>
+      <c r="E1293">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="F1293">
+        <v>158870</v>
+      </c>
+      <c r="G1293">
+        <v>64776</v>
+      </c>
+      <c r="H1293">
+        <v>73504</v>
+      </c>
+      <c r="I1293" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1294">
+        <v>646</v>
+      </c>
+      <c r="B1294">
+        <v>3</v>
+      </c>
+      <c r="C1294">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D1294">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="E1294">
+        <v>7.6479999999999997</v>
+      </c>
+      <c r="F1294">
+        <v>183494</v>
+      </c>
+      <c r="G1294">
+        <v>75358</v>
+      </c>
+      <c r="H1294">
+        <v>78229</v>
+      </c>
+      <c r="I1294" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1295">
+        <v>646</v>
+      </c>
+      <c r="B1295">
+        <v>3</v>
+      </c>
+      <c r="C1295">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="D1295">
+        <v>7.218</v>
+      </c>
+      <c r="E1295">
+        <v>7.6479999999999997</v>
+      </c>
+      <c r="F1295">
+        <v>183121</v>
+      </c>
+      <c r="G1295">
+        <v>75849</v>
+      </c>
+      <c r="H1295">
+        <v>77124</v>
+      </c>
+      <c r="I1295" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1296">
+        <v>646</v>
+      </c>
+      <c r="B1296">
+        <v>3</v>
+      </c>
+      <c r="C1296">
+        <v>4.782</v>
+      </c>
+      <c r="D1296">
+        <v>7.2210000000000001</v>
+      </c>
+      <c r="E1296">
+        <v>7.6459999999999999</v>
+      </c>
+      <c r="F1296">
+        <v>193735</v>
+      </c>
+      <c r="G1296">
+        <v>79919</v>
+      </c>
+      <c r="H1296">
+        <v>83171</v>
+      </c>
+      <c r="I1296" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1297">
+        <v>647</v>
+      </c>
+      <c r="B1297">
+        <v>3</v>
+      </c>
+      <c r="C1297">
+        <v>4.7789999999999999</v>
+      </c>
+      <c r="D1297">
+        <v>7.2270000000000003</v>
+      </c>
+      <c r="E1297">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="F1297">
+        <v>216021</v>
+      </c>
+      <c r="G1297">
+        <v>85016</v>
+      </c>
+      <c r="H1297">
+        <v>99541</v>
+      </c>
+      <c r="I1297" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1298">
+        <v>647</v>
+      </c>
+      <c r="B1298">
+        <v>3</v>
+      </c>
+      <c r="C1298">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="D1298">
+        <v>7.2220000000000004</v>
+      </c>
+      <c r="E1298">
+        <v>7.6440000000000001</v>
+      </c>
+      <c r="F1298">
+        <v>192032</v>
+      </c>
+      <c r="G1298">
+        <v>75978</v>
+      </c>
+      <c r="H1298">
+        <v>87698</v>
+      </c>
+      <c r="I1298" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1299">
+        <v>647</v>
+      </c>
+      <c r="B1299">
+        <v>3</v>
+      </c>
+      <c r="C1299">
+        <v>4.7789999999999999</v>
+      </c>
+      <c r="D1299">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="E1299">
+        <v>7.6390000000000002</v>
+      </c>
+      <c r="F1299">
+        <v>195643</v>
+      </c>
+      <c r="G1299">
+        <v>77130</v>
+      </c>
+      <c r="H1299">
+        <v>89545</v>
+      </c>
+      <c r="I1299" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1300">
+        <v>648</v>
+      </c>
+      <c r="B1300">
+        <v>3</v>
+      </c>
+      <c r="C1300">
+        <v>4.79</v>
+      </c>
+      <c r="D1300">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1300">
+        <v>7.6539999999999999</v>
+      </c>
+      <c r="F1300">
+        <v>148483</v>
+      </c>
+      <c r="G1300">
+        <v>62522</v>
+      </c>
+      <c r="H1300">
+        <v>65880</v>
+      </c>
+      <c r="I1300" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1301">
+        <v>648</v>
+      </c>
+      <c r="B1301">
+        <v>3</v>
+      </c>
+      <c r="C1301">
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="D1301">
+        <v>7.218</v>
+      </c>
+      <c r="E1301">
+        <v>7.6449999999999996</v>
+      </c>
+      <c r="F1301">
+        <v>174902</v>
+      </c>
+      <c r="G1301">
+        <v>74244</v>
+      </c>
+      <c r="H1301">
+        <v>79080</v>
+      </c>
+      <c r="I1301" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1302">
+        <v>648</v>
+      </c>
+      <c r="B1302">
+        <v>3</v>
+      </c>
+      <c r="C1302">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="D1302">
+        <v>7.2060000000000004</v>
+      </c>
+      <c r="E1302">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="F1302">
+        <v>180510</v>
+      </c>
+      <c r="G1302">
+        <v>75667</v>
+      </c>
+      <c r="H1302">
+        <v>82543</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1303">
+        <v>649</v>
+      </c>
+      <c r="B1303">
+        <v>3</v>
+      </c>
+      <c r="C1303">
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="D1303">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="E1303">
+        <v>7.6260000000000003</v>
+      </c>
+      <c r="F1303">
+        <v>323445</v>
+      </c>
+      <c r="G1303">
+        <v>127871</v>
+      </c>
+      <c r="H1303">
+        <v>142548</v>
+      </c>
+      <c r="I1303" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1304">
+        <v>649</v>
+      </c>
+      <c r="B1304">
+        <v>3</v>
+      </c>
+      <c r="C1304">
+        <v>4.7779999999999996</v>
+      </c>
+      <c r="D1304">
+        <v>7.22</v>
+      </c>
+      <c r="E1304">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="F1304">
+        <v>202519</v>
+      </c>
+      <c r="G1304">
+        <v>81823</v>
+      </c>
+      <c r="H1304">
+        <v>89968</v>
+      </c>
+      <c r="I1304" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1305">
+        <v>649</v>
+      </c>
+      <c r="B1305">
+        <v>3</v>
+      </c>
+      <c r="C1305">
+        <v>4.7640000000000002</v>
+      </c>
+      <c r="D1305">
+        <v>7.202</v>
+      </c>
+      <c r="E1305">
+        <v>7.6230000000000002</v>
+      </c>
+      <c r="F1305">
+        <v>193707</v>
+      </c>
+      <c r="G1305">
+        <v>78146</v>
+      </c>
+      <c r="H1305">
+        <v>87754</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1306">
+        <v>650</v>
+      </c>
+      <c r="B1306">
+        <v>3</v>
+      </c>
+      <c r="C1306">
+        <v>4.7779999999999996</v>
+      </c>
+      <c r="D1306">
+        <v>7.21</v>
+      </c>
+      <c r="E1306">
+        <v>7.6390000000000002</v>
+      </c>
+      <c r="F1306">
+        <v>174229</v>
+      </c>
+      <c r="G1306">
+        <v>72191</v>
+      </c>
+      <c r="H1306">
+        <v>77643</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1307">
+        <v>650</v>
+      </c>
+      <c r="B1307">
+        <v>3</v>
+      </c>
+      <c r="C1307">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="D1307">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="E1307">
+        <v>7.6390000000000002</v>
+      </c>
+      <c r="F1307">
+        <v>172454</v>
+      </c>
+      <c r="G1307">
+        <v>71536</v>
+      </c>
+      <c r="H1307">
+        <v>77913</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1308">
+        <v>650</v>
+      </c>
+      <c r="B1308">
+        <v>3</v>
+      </c>
+      <c r="C1308">
+        <v>4.798</v>
+      </c>
+      <c r="D1308">
+        <v>7.2130000000000001</v>
+      </c>
+      <c r="E1308">
+        <v>7.6580000000000004</v>
+      </c>
+      <c r="F1308">
+        <v>130599</v>
+      </c>
+      <c r="G1308">
+        <v>54291</v>
+      </c>
+      <c r="H1308">
+        <v>58266</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1309">
+        <v>651</v>
+      </c>
+      <c r="B1309">
+        <v>3</v>
+      </c>
+      <c r="C1309">
+        <v>4.7720000000000002</v>
+      </c>
+      <c r="D1309">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="E1309">
+        <v>7.6280000000000001</v>
+      </c>
+      <c r="F1309">
+        <v>194468</v>
+      </c>
+      <c r="G1309">
+        <v>78793</v>
+      </c>
+      <c r="H1309">
+        <v>88478</v>
+      </c>
+      <c r="I1309" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1310">
+        <v>651</v>
+      </c>
+      <c r="B1310">
+        <v>3</v>
+      </c>
+      <c r="C1310">
+        <v>4.7770000000000001</v>
+      </c>
+      <c r="D1310">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="E1310">
+        <v>7.6360000000000001</v>
+      </c>
+      <c r="F1310">
+        <v>196479</v>
+      </c>
+      <c r="G1310">
+        <v>79859</v>
+      </c>
+      <c r="H1310">
+        <v>88154</v>
+      </c>
+      <c r="I1310" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1311">
+        <v>651</v>
+      </c>
+      <c r="B1311">
+        <v>3</v>
+      </c>
+      <c r="C1311">
+        <v>4.798</v>
+      </c>
+      <c r="D1311">
+        <v>7.2229999999999999</v>
+      </c>
+      <c r="E1311">
+        <v>7.681</v>
+      </c>
+      <c r="F1311">
+        <v>122841</v>
+      </c>
+      <c r="G1311">
+        <v>50117</v>
+      </c>
+      <c r="H1311">
+        <v>57229</v>
+      </c>
+      <c r="I1311" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1312">
+        <v>652</v>
+      </c>
+      <c r="B1312">
+        <v>3</v>
+      </c>
+      <c r="C1312">
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="D1312">
+        <v>7.2119999999999997</v>
+      </c>
+      <c r="E1312">
+        <v>7.633</v>
+      </c>
+      <c r="F1312">
+        <v>192000</v>
+      </c>
+      <c r="G1312">
+        <v>82767</v>
+      </c>
+      <c r="H1312">
+        <v>87216</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1313">
+        <v>652</v>
+      </c>
+      <c r="B1313">
+        <v>3</v>
+      </c>
+      <c r="C1313">
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="D1313">
+        <v>7.2140000000000004</v>
+      </c>
+      <c r="E1313">
+        <v>7.6479999999999997</v>
+      </c>
+      <c r="F1313">
+        <v>162151</v>
+      </c>
+      <c r="G1313">
+        <v>70193</v>
+      </c>
+      <c r="H1313">
+        <v>71696</v>
+      </c>
+      <c r="I1313" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1314">
+        <v>652</v>
+      </c>
+      <c r="B1314">
+        <v>3</v>
+      </c>
+      <c r="C1314">
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="D1314">
+        <v>7.21</v>
+      </c>
+      <c r="E1314">
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="F1314">
+        <v>156439</v>
+      </c>
+      <c r="G1314">
+        <v>67222</v>
+      </c>
+      <c r="H1314">
+        <v>70942</v>
+      </c>
+      <c r="I1314" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1315">
+        <v>653</v>
+      </c>
+      <c r="B1315">
+        <v>3</v>
+      </c>
+      <c r="C1315">
+        <v>4.79</v>
+      </c>
+      <c r="D1315">
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="E1315">
+        <v>7.66</v>
+      </c>
+      <c r="F1315">
+        <v>193097</v>
+      </c>
+      <c r="G1315">
+        <v>80543</v>
+      </c>
+      <c r="H1315">
+        <v>91267</v>
+      </c>
+      <c r="I1315" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1316">
+        <v>653</v>
+      </c>
+      <c r="B1316">
+        <v>3</v>
+      </c>
+      <c r="C1316">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D1316">
+        <v>7.22</v>
+      </c>
+      <c r="E1316">
+        <v>7.6479999999999997</v>
+      </c>
+      <c r="F1316">
+        <v>173953</v>
+      </c>
+      <c r="G1316">
+        <v>72712</v>
+      </c>
+      <c r="H1316">
+        <v>82146</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1317">
+        <v>653</v>
+      </c>
+      <c r="B1317">
+        <v>3</v>
+      </c>
+      <c r="C1317">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="D1317">
+        <v>7.21</v>
+      </c>
+      <c r="E1317">
+        <v>7.6349999999999998</v>
+      </c>
+      <c r="F1317">
+        <v>180031</v>
+      </c>
+      <c r="G1317">
+        <v>75240</v>
+      </c>
+      <c r="H1317">
+        <v>85437</v>
+      </c>
+      <c r="I1317" t="s">
         <v>334</v>
       </c>
     </row>

--- a/Entwurf.xlsx
+++ b/Entwurf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00E6CAC-9D8B-47EB-B6F5-EA4CA9ADC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE13471-ABB2-4716-9BCF-93BC2235D135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorbehandlungen" sheetId="1" r:id="rId1"/>
@@ -1766,7 +1766,18 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:M650" totalsRowShown="0">
-  <autoFilter ref="A1:M650" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <autoFilter ref="A1:M650" xr:uid="{00000000-0009-0000-0100-000005000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Trockene Zellen"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="GC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M592">
     <sortCondition ref="A1:A592"/>
   </sortState>
@@ -11718,7 +11729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -16439,8 +16450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M650"/>
   <sheetViews>
-    <sheetView topLeftCell="B567" workbookViewId="0">
-      <selection activeCell="F644" sqref="F644"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:A593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16501,7 +16512,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16539,7 +16550,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16577,7 +16588,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16615,7 +16626,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16653,7 +16664,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16691,7 +16702,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16729,7 +16740,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16767,7 +16778,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16805,7 +16816,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16843,7 +16854,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16881,7 +16892,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16919,7 +16930,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16957,7 +16968,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16995,7 +17006,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17033,7 +17044,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17071,7 +17082,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17109,7 +17120,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17147,7 +17158,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17185,7 +17196,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17223,7 +17234,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17261,7 +17272,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17299,7 +17310,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17337,7 +17348,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17375,7 +17386,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17413,7 +17424,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17451,7 +17462,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17489,7 +17500,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17527,7 +17538,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17565,7 +17576,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17603,7 +17614,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17641,7 +17652,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17679,7 +17690,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17717,7 +17728,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17755,7 +17766,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17793,7 +17804,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17831,7 +17842,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17869,7 +17880,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17907,7 +17918,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17945,7 +17956,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17983,7 +17994,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -18021,7 +18032,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -18059,7 +18070,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18097,7 +18108,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18135,7 +18146,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18173,7 +18184,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18211,7 +18222,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18249,7 +18260,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18287,7 +18298,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -18325,7 +18336,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18363,7 +18374,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18401,7 +18412,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18439,7 +18450,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18477,7 +18488,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18515,7 +18526,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18553,7 +18564,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18591,7 +18602,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18629,7 +18640,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18667,7 +18678,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18705,7 +18716,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18743,7 +18754,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18781,7 +18792,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18822,7 +18833,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18863,7 +18874,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18904,7 +18915,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18945,7 +18956,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18986,7 +18997,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -19027,7 +19038,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -19065,7 +19076,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -19103,7 +19114,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -19141,7 +19152,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -19179,7 +19190,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -19217,7 +19228,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -19246,7 +19257,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -19284,7 +19295,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -19313,7 +19324,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -19354,7 +19365,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -19392,7 +19403,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -19430,7 +19441,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -19468,7 +19479,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -19509,7 +19520,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -19547,7 +19558,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -19585,7 +19596,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -19623,7 +19634,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -19661,7 +19672,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -19699,7 +19710,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -19737,7 +19748,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -19775,7 +19786,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -19813,7 +19824,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -19851,7 +19862,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -19880,7 +19891,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -19991,7 +20002,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -20032,7 +20043,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -20149,7 +20160,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -20187,7 +20198,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -20304,7 +20315,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -20342,7 +20353,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -20421,7 +20432,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -20503,7 +20514,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -20579,7 +20590,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -20617,7 +20628,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -20655,7 +20666,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -20693,7 +20704,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -20731,7 +20742,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -20769,7 +20780,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -20810,7 +20821,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -20851,7 +20862,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -20892,7 +20903,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -20933,7 +20944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -20974,7 +20985,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -21015,7 +21026,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -21056,7 +21067,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -21097,7 +21108,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -21138,7 +21149,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -21179,7 +21190,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -21217,7 +21228,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -21255,7 +21266,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -21293,7 +21304,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -21331,7 +21342,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -21369,7 +21380,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -21407,7 +21418,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -21436,7 +21447,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -21465,7 +21476,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -21506,7 +21517,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -21547,7 +21558,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -21582,7 +21593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -21623,7 +21634,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -21664,7 +21675,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -21699,7 +21710,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -21740,7 +21751,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -21781,7 +21792,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -21816,7 +21827,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -21857,7 +21868,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -21898,7 +21909,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -21933,7 +21944,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -21974,7 +21985,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -22015,7 +22026,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -22050,7 +22061,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -22091,7 +22102,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -22132,7 +22143,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -22167,7 +22178,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -22208,7 +22219,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -22249,7 +22260,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -22284,7 +22295,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -22325,7 +22336,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -22366,7 +22377,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -22401,7 +22412,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -22442,7 +22453,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -22483,7 +22494,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -22524,7 +22535,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -22565,7 +22576,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -22682,7 +22693,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -22717,7 +22728,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -22755,7 +22766,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -22793,7 +22804,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -22822,7 +22833,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -22851,7 +22862,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -22889,7 +22900,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -22927,7 +22938,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -22956,7 +22967,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -22985,7 +22996,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -23023,7 +23034,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -23061,7 +23072,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -23090,7 +23101,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -23119,7 +23130,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -23157,7 +23168,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -23195,7 +23206,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -23224,7 +23235,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -23335,7 +23346,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -23373,7 +23384,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -23411,7 +23422,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -23440,7 +23451,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -23469,7 +23480,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -23507,7 +23518,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -23545,7 +23556,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -23574,7 +23585,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -23603,7 +23614,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -23632,7 +23643,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -23661,7 +23672,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -23690,7 +23701,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -23719,7 +23730,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -23757,7 +23768,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -23795,7 +23806,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -23824,7 +23835,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -23853,7 +23864,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -23882,7 +23893,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -23911,7 +23922,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -23940,7 +23951,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -23969,7 +23980,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -24007,7 +24018,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -24045,7 +24056,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -24074,7 +24085,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -24103,7 +24114,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -24132,7 +24143,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -24161,7 +24172,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -24190,7 +24201,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -24219,7 +24230,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -24257,7 +24268,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -24295,7 +24306,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -24324,7 +24335,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -24353,7 +24364,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -24382,7 +24393,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -24411,7 +24422,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -24440,7 +24451,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -24469,7 +24480,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -24507,7 +24518,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -24545,7 +24556,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -24574,7 +24585,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -24603,7 +24614,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -24641,7 +24652,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -24679,7 +24690,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -24714,7 +24725,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -24749,7 +24760,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -24784,7 +24795,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -24825,7 +24836,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -24866,7 +24877,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -24907,7 +24918,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -24948,7 +24959,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -24986,7 +24997,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -25024,7 +25035,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>236</v>
       </c>
@@ -25065,7 +25076,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>237</v>
       </c>
@@ -25106,7 +25117,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>238</v>
       </c>
@@ -25147,7 +25158,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>239</v>
       </c>
@@ -25188,7 +25199,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>240</v>
       </c>
@@ -25229,7 +25240,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>241</v>
       </c>
@@ -25270,7 +25281,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>242</v>
       </c>
@@ -25311,7 +25322,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>243</v>
       </c>
@@ -25352,7 +25363,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>244</v>
       </c>
@@ -25393,7 +25404,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>245</v>
       </c>
@@ -25434,7 +25445,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>246</v>
       </c>
@@ -25475,7 +25486,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>247</v>
       </c>
@@ -25516,7 +25527,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>248</v>
       </c>
@@ -25557,7 +25568,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>249</v>
       </c>
@@ -25598,7 +25609,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>250</v>
       </c>
@@ -25639,7 +25650,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>251</v>
       </c>
@@ -25680,7 +25691,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>252</v>
       </c>
@@ -25721,7 +25732,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>253</v>
       </c>
@@ -25762,7 +25773,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>254</v>
       </c>
@@ -25803,7 +25814,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>255</v>
       </c>
@@ -25844,7 +25855,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>256</v>
       </c>
@@ -25885,7 +25896,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>257</v>
       </c>
@@ -25926,7 +25937,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>258</v>
       </c>
@@ -25967,7 +25978,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>259</v>
       </c>
@@ -26008,7 +26019,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>260</v>
       </c>
@@ -26049,7 +26060,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>261</v>
       </c>
@@ -26090,7 +26101,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>262</v>
       </c>
@@ -26131,7 +26142,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>263</v>
       </c>
@@ -26172,7 +26183,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>264</v>
       </c>
@@ -26213,7 +26224,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>265</v>
       </c>
@@ -26254,7 +26265,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>266</v>
       </c>
@@ -26295,7 +26306,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>267</v>
       </c>
@@ -26336,7 +26347,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>268</v>
       </c>
@@ -26377,7 +26388,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>269</v>
       </c>
@@ -26418,7 +26429,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>270</v>
       </c>
@@ -26459,7 +26470,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>271</v>
       </c>
@@ -26500,7 +26511,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>272</v>
       </c>
@@ -26541,7 +26552,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>273</v>
       </c>
@@ -26582,7 +26593,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>274</v>
       </c>
@@ -26623,7 +26634,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>275</v>
       </c>
@@ -26664,7 +26675,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>276</v>
       </c>
@@ -26705,7 +26716,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>277</v>
       </c>
@@ -26746,7 +26757,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>278</v>
       </c>
@@ -26904,13 +26915,13 @@
         <v>335</v>
       </c>
       <c r="L278" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M278" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>282</v>
       </c>
@@ -26951,7 +26962,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>283</v>
       </c>
@@ -26992,7 +27003,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>284</v>
       </c>
@@ -27033,7 +27044,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>285</v>
       </c>
@@ -27074,7 +27085,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>286</v>
       </c>
@@ -27115,7 +27126,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>287</v>
       </c>
@@ -27156,7 +27167,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>288</v>
       </c>
@@ -27197,7 +27208,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>289</v>
       </c>
@@ -27238,7 +27249,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>290</v>
       </c>
@@ -27279,7 +27290,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>291</v>
       </c>
@@ -27320,7 +27331,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>292</v>
       </c>
@@ -27361,7 +27372,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>293</v>
       </c>
@@ -27402,7 +27413,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>294</v>
       </c>
@@ -27443,7 +27454,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>295</v>
       </c>
@@ -27484,7 +27495,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>296</v>
       </c>
@@ -27525,7 +27536,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>297</v>
       </c>
@@ -27566,7 +27577,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>298</v>
       </c>
@@ -27607,7 +27618,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>299</v>
       </c>
@@ -27648,7 +27659,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>300</v>
       </c>
@@ -27689,7 +27700,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>301</v>
       </c>
@@ -27730,7 +27741,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>302</v>
       </c>
@@ -27771,7 +27782,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>303</v>
       </c>
@@ -27812,7 +27823,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>304</v>
       </c>
@@ -27853,7 +27864,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>305</v>
       </c>
@@ -27894,7 +27905,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>306</v>
       </c>
@@ -27935,7 +27946,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>307</v>
       </c>
@@ -27976,7 +27987,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>308</v>
       </c>
@@ -28017,7 +28028,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>309</v>
       </c>
@@ -28058,7 +28069,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>310</v>
       </c>
@@ -28099,7 +28110,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>311</v>
       </c>
@@ -28140,7 +28151,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>312</v>
       </c>
@@ -28181,7 +28192,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>313</v>
       </c>
@@ -28222,7 +28233,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>314</v>
       </c>
@@ -28263,7 +28274,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>315</v>
       </c>
@@ -28304,7 +28315,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>316</v>
       </c>
@@ -28345,7 +28356,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>317</v>
       </c>
@@ -28386,7 +28397,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>318</v>
       </c>
@@ -28427,7 +28438,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>319</v>
       </c>
@@ -28468,7 +28479,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>320</v>
       </c>
@@ -28509,7 +28520,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>321</v>
       </c>
@@ -28550,7 +28561,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>322</v>
       </c>
@@ -28591,7 +28602,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>323</v>
       </c>
@@ -28632,7 +28643,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>324</v>
       </c>
@@ -28673,7 +28684,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>325</v>
       </c>
@@ -28714,7 +28725,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>326</v>
       </c>
@@ -28755,7 +28766,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>327</v>
       </c>
@@ -28796,7 +28807,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>328</v>
       </c>
@@ -28837,7 +28848,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>329</v>
       </c>
@@ -28878,7 +28889,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>330</v>
       </c>
@@ -28919,7 +28930,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>331</v>
       </c>
@@ -28960,7 +28971,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>332</v>
       </c>
@@ -29001,7 +29012,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>333</v>
       </c>
@@ -29042,7 +29053,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>334</v>
       </c>
@@ -29083,7 +29094,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>335</v>
       </c>
@@ -29124,7 +29135,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>336</v>
       </c>
@@ -29165,7 +29176,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>337</v>
       </c>
@@ -29206,7 +29217,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>338</v>
       </c>
@@ -29247,7 +29258,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>339</v>
       </c>
@@ -29329,7 +29340,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>341</v>
       </c>
@@ -29370,7 +29381,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>342</v>
       </c>
@@ -29411,7 +29422,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>343</v>
       </c>
@@ -29452,7 +29463,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>344</v>
       </c>
@@ -29493,7 +29504,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>345</v>
       </c>
@@ -29534,7 +29545,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>346</v>
       </c>
@@ -29575,7 +29586,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>347</v>
       </c>
@@ -29616,7 +29627,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>348</v>
       </c>
@@ -29657,7 +29668,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>349</v>
       </c>
@@ -29698,7 +29709,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>350</v>
       </c>
@@ -29739,7 +29750,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>351</v>
       </c>
@@ -29780,7 +29791,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>352</v>
       </c>
@@ -29821,7 +29832,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>353</v>
       </c>
@@ -29862,7 +29873,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>354</v>
       </c>
@@ -29903,7 +29914,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>355</v>
       </c>
@@ -29944,7 +29955,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>356</v>
       </c>
@@ -29985,7 +29996,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>357</v>
       </c>
@@ -30026,7 +30037,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>358</v>
       </c>
@@ -30067,7 +30078,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>359</v>
       </c>
@@ -30108,7 +30119,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>360</v>
       </c>
@@ -30149,7 +30160,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>361</v>
       </c>
@@ -30190,7 +30201,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>362</v>
       </c>
@@ -30231,7 +30242,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>363</v>
       </c>
@@ -30272,7 +30283,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>364</v>
       </c>
@@ -30313,7 +30324,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>365</v>
       </c>
@@ -30354,7 +30365,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>366</v>
       </c>
@@ -30395,7 +30406,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>367</v>
       </c>
@@ -30436,7 +30447,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>368</v>
       </c>
@@ -30477,7 +30488,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>369</v>
       </c>
@@ -30518,7 +30529,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>370</v>
       </c>
@@ -30559,7 +30570,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>371</v>
       </c>
@@ -30600,7 +30611,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>372</v>
       </c>
@@ -30641,7 +30652,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>373</v>
       </c>
@@ -30682,7 +30693,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>374</v>
       </c>
@@ -30723,7 +30734,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>375</v>
       </c>
@@ -30764,7 +30775,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>376</v>
       </c>
@@ -30805,7 +30816,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>377</v>
       </c>
@@ -30846,7 +30857,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>378</v>
       </c>
@@ -30887,7 +30898,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>379</v>
       </c>
@@ -30928,7 +30939,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>380</v>
       </c>
@@ -30969,7 +30980,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>381</v>
       </c>
@@ -31010,7 +31021,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>382</v>
       </c>
@@ -31051,7 +31062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>383</v>
       </c>
@@ -31092,7 +31103,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>384</v>
       </c>
@@ -31133,7 +31144,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>385</v>
       </c>
@@ -31174,7 +31185,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>386</v>
       </c>
@@ -31215,7 +31226,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>387</v>
       </c>
@@ -31256,7 +31267,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>388</v>
       </c>
@@ -31297,7 +31308,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>389</v>
       </c>
@@ -31338,7 +31349,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>390</v>
       </c>
@@ -31379,7 +31390,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>391</v>
       </c>
@@ -31420,7 +31431,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>392</v>
       </c>
@@ -31461,7 +31472,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>393</v>
       </c>
@@ -31502,7 +31513,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>394</v>
       </c>
@@ -31543,7 +31554,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>395</v>
       </c>
@@ -31584,7 +31595,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>396</v>
       </c>
@@ -31625,7 +31636,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>397</v>
       </c>
@@ -31666,7 +31677,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>398</v>
       </c>
@@ -31707,7 +31718,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>399</v>
       </c>
@@ -31748,7 +31759,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>400</v>
       </c>
@@ -31789,7 +31800,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>401</v>
       </c>
@@ -31830,7 +31841,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>402</v>
       </c>
@@ -31871,7 +31882,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>403</v>
       </c>
@@ -31912,7 +31923,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>404</v>
       </c>
@@ -31953,7 +31964,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>405</v>
       </c>
@@ -31994,7 +32005,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>406</v>
       </c>
@@ -32035,7 +32046,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>407</v>
       </c>
@@ -32076,7 +32087,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>408</v>
       </c>
@@ -32117,7 +32128,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>409</v>
       </c>
@@ -32158,7 +32169,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>410</v>
       </c>
@@ -32199,7 +32210,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>411</v>
       </c>
@@ -32240,7 +32251,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>412</v>
       </c>
@@ -32281,7 +32292,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>413</v>
       </c>
@@ -32322,7 +32333,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>414</v>
       </c>
@@ -32363,7 +32374,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>415</v>
       </c>
@@ -32404,7 +32415,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>416</v>
       </c>
@@ -32445,7 +32456,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>417</v>
       </c>
@@ -32486,7 +32497,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>418</v>
       </c>
@@ -32527,7 +32538,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>419</v>
       </c>
@@ -32568,7 +32579,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>420</v>
       </c>
@@ -32609,7 +32620,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>421</v>
       </c>
@@ -32650,7 +32661,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>422</v>
       </c>
@@ -32691,7 +32702,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>423</v>
       </c>
@@ -32732,7 +32743,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>424</v>
       </c>
@@ -32773,7 +32784,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>425</v>
       </c>
@@ -32814,7 +32825,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>426</v>
       </c>
@@ -32855,7 +32866,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>427</v>
       </c>
@@ -32896,7 +32907,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>428</v>
       </c>
@@ -32937,7 +32948,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>429</v>
       </c>
@@ -32978,7 +32989,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>430</v>
       </c>
@@ -33019,7 +33030,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>431</v>
       </c>
@@ -33060,7 +33071,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>432</v>
       </c>
@@ -33101,7 +33112,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>433</v>
       </c>
@@ -33142,7 +33153,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>434</v>
       </c>
@@ -33183,7 +33194,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>435</v>
       </c>
@@ -33224,7 +33235,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>436</v>
       </c>
@@ -33265,7 +33276,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>437</v>
       </c>
@@ -33306,7 +33317,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>438</v>
       </c>
@@ -33347,7 +33358,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>439</v>
       </c>
@@ -33388,7 +33399,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>440</v>
       </c>
@@ -33429,7 +33440,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>441</v>
       </c>
@@ -33470,7 +33481,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>442</v>
       </c>
@@ -33511,7 +33522,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>443</v>
       </c>
@@ -33552,7 +33563,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>444</v>
       </c>
@@ -33593,7 +33604,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>445</v>
       </c>
@@ -33634,7 +33645,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>446</v>
       </c>
@@ -33675,7 +33686,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>447</v>
       </c>
@@ -33716,7 +33727,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>448</v>
       </c>
@@ -33757,7 +33768,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>449</v>
       </c>
@@ -33798,7 +33809,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>450</v>
       </c>
@@ -33839,7 +33850,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>451</v>
       </c>
@@ -33880,7 +33891,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>452</v>
       </c>
@@ -33921,7 +33932,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>453</v>
       </c>
@@ -33962,7 +33973,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>454</v>
       </c>
@@ -34003,7 +34014,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>455</v>
       </c>
@@ -34038,7 +34049,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>456</v>
       </c>
@@ -34073,7 +34084,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>457</v>
       </c>
@@ -34108,7 +34119,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>458</v>
       </c>
@@ -34143,7 +34154,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>459</v>
       </c>
@@ -34178,7 +34189,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>460</v>
       </c>
@@ -34213,7 +34224,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>461</v>
       </c>
@@ -34248,7 +34259,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>462</v>
       </c>
@@ -34283,7 +34294,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>463</v>
       </c>
@@ -34318,7 +34329,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>464</v>
       </c>
@@ -34353,7 +34364,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>465</v>
       </c>
@@ -34388,7 +34399,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>466</v>
       </c>
@@ -34423,7 +34434,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>467</v>
       </c>
@@ -34458,7 +34469,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>468</v>
       </c>
@@ -34493,7 +34504,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>469</v>
       </c>
@@ -34528,7 +34539,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>470</v>
       </c>
@@ -34563,7 +34574,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>471</v>
       </c>
@@ -34598,7 +34609,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>472</v>
       </c>
@@ -34633,7 +34644,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>473</v>
       </c>
@@ -34668,7 +34679,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>474</v>
       </c>
@@ -34703,7 +34714,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>475</v>
       </c>
@@ -34738,7 +34749,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>476</v>
       </c>
@@ -34773,7 +34784,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>477</v>
       </c>
@@ -34808,7 +34819,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>478</v>
       </c>
@@ -34843,7 +34854,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>479</v>
       </c>
@@ -34878,7 +34889,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>480</v>
       </c>
@@ -34913,7 +34924,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>481</v>
       </c>
@@ -34948,7 +34959,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>482</v>
       </c>
@@ -34983,7 +34994,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>483</v>
       </c>
@@ -35018,7 +35029,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>484</v>
       </c>
@@ -35053,7 +35064,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>485</v>
       </c>
@@ -35088,7 +35099,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>486</v>
       </c>
@@ -35123,7 +35134,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>487</v>
       </c>
@@ -35158,7 +35169,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>488</v>
       </c>
@@ -35193,7 +35204,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>489</v>
       </c>
@@ -35228,7 +35239,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>490</v>
       </c>
@@ -35263,7 +35274,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>491</v>
       </c>
@@ -35298,7 +35309,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>492</v>
       </c>
@@ -35333,7 +35344,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>493</v>
       </c>
@@ -35368,7 +35379,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>494</v>
       </c>
@@ -35403,7 +35414,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>495</v>
       </c>
@@ -35438,7 +35449,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>496</v>
       </c>
@@ -35473,7 +35484,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>497</v>
       </c>
@@ -35508,7 +35519,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>498</v>
       </c>
@@ -35543,7 +35554,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>499</v>
       </c>
@@ -35578,7 +35589,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>500</v>
       </c>
@@ -35613,7 +35624,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>501</v>
       </c>
@@ -35648,7 +35659,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>502</v>
       </c>
@@ -35683,7 +35694,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>503</v>
       </c>
@@ -35718,7 +35729,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>504</v>
       </c>
@@ -35753,7 +35764,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>505</v>
       </c>
@@ -35788,7 +35799,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>506</v>
       </c>
@@ -35823,7 +35834,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>507</v>
       </c>
@@ -35858,7 +35869,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>508</v>
       </c>
@@ -35893,7 +35904,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>509</v>
       </c>
@@ -35928,7 +35939,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>510</v>
       </c>
@@ -35963,7 +35974,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>511</v>
       </c>
@@ -35998,7 +36009,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>512</v>
       </c>
@@ -36033,7 +36044,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>513</v>
       </c>
@@ -36068,7 +36079,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>514</v>
       </c>
@@ -36103,7 +36114,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>515</v>
       </c>
@@ -36138,7 +36149,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>516</v>
       </c>
@@ -36173,7 +36184,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>517</v>
       </c>
@@ -36208,7 +36219,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>518</v>
       </c>
@@ -36243,7 +36254,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>519</v>
       </c>
@@ -36278,7 +36289,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>520</v>
       </c>
@@ -36313,7 +36324,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>521</v>
       </c>
@@ -36348,7 +36359,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>522</v>
       </c>
@@ -36383,7 +36394,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>523</v>
       </c>
@@ -36418,7 +36429,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>524</v>
       </c>
@@ -36453,7 +36464,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>525</v>
       </c>
@@ -36488,7 +36499,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>526</v>
       </c>
@@ -36523,7 +36534,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>527</v>
       </c>
@@ -36558,7 +36569,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>528</v>
       </c>
@@ -36593,7 +36604,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>529</v>
       </c>
@@ -36628,7 +36639,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>530</v>
       </c>
@@ -36663,7 +36674,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>531</v>
       </c>
@@ -36698,7 +36709,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>532</v>
       </c>
@@ -36733,7 +36744,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>533</v>
       </c>
@@ -36768,7 +36779,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>534</v>
       </c>
@@ -36803,7 +36814,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>535</v>
       </c>
@@ -36838,7 +36849,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>536</v>
       </c>
@@ -36873,7 +36884,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>537</v>
       </c>
@@ -36908,7 +36919,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>538</v>
       </c>
@@ -36943,7 +36954,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>539</v>
       </c>
@@ -36978,7 +36989,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>540</v>
       </c>
@@ -37013,7 +37024,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>541</v>
       </c>
@@ -37048,7 +37059,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>542</v>
       </c>
@@ -37083,7 +37094,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>543</v>
       </c>
@@ -37118,7 +37129,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>544</v>
       </c>
@@ -37153,7 +37164,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>545</v>
       </c>
@@ -37188,7 +37199,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>546</v>
       </c>
@@ -37223,7 +37234,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>547</v>
       </c>
@@ -37258,7 +37269,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>548</v>
       </c>
@@ -37293,7 +37304,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>549</v>
       </c>
@@ -37328,7 +37339,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>550</v>
       </c>
@@ -37363,7 +37374,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>551</v>
       </c>
@@ -37398,7 +37409,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>552</v>
       </c>
@@ -37436,7 +37447,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>553</v>
       </c>
@@ -37474,7 +37485,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>554</v>
       </c>
@@ -37512,7 +37523,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>555</v>
       </c>
@@ -37550,7 +37561,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>556</v>
       </c>
@@ -37588,7 +37599,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>557</v>
       </c>
@@ -37626,7 +37637,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>558</v>
       </c>
@@ -37664,7 +37675,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>559</v>
       </c>
@@ -37702,7 +37713,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>560</v>
       </c>
@@ -37740,7 +37751,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>561</v>
       </c>
@@ -37778,7 +37789,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>562</v>
       </c>
@@ -37816,7 +37827,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>563</v>
       </c>
@@ -37854,7 +37865,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>564</v>
       </c>
@@ -37892,7 +37903,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>565</v>
       </c>
@@ -37930,7 +37941,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>566</v>
       </c>
@@ -37968,7 +37979,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>567</v>
       </c>
@@ -38006,7 +38017,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>568</v>
       </c>
@@ -38044,7 +38055,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>569</v>
       </c>
@@ -38082,7 +38093,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>570</v>
       </c>
@@ -38120,7 +38131,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>571</v>
       </c>
@@ -38158,7 +38169,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>572</v>
       </c>
@@ -38196,7 +38207,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>573</v>
       </c>
@@ -38234,7 +38245,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>574</v>
       </c>
@@ -38272,7 +38283,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>575</v>
       </c>
@@ -38310,7 +38321,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>576</v>
       </c>
@@ -38348,7 +38359,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>577</v>
       </c>
@@ -38386,7 +38397,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>578</v>
       </c>
@@ -38424,7 +38435,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>579</v>
       </c>
@@ -38462,7 +38473,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>580</v>
       </c>
@@ -38500,7 +38511,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>581</v>
       </c>
@@ -38538,7 +38549,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>582</v>
       </c>
@@ -38576,7 +38587,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>583</v>
       </c>
@@ -38614,7 +38625,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>584</v>
       </c>
@@ -38652,7 +38663,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>585</v>
       </c>
@@ -38690,7 +38701,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>586</v>
       </c>
@@ -38728,7 +38739,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>587</v>
       </c>
@@ -38766,7 +38777,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>588</v>
       </c>
@@ -38804,7 +38815,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>589</v>
       </c>
@@ -38842,7 +38853,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>590</v>
       </c>
@@ -38880,7 +38891,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>591</v>
       </c>
@@ -38918,7 +38929,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>592</v>
       </c>
@@ -38956,7 +38967,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>593</v>
       </c>
@@ -38994,7 +39005,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>594</v>
       </c>
@@ -39032,7 +39043,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A592">
         <v>595</v>
       </c>
@@ -39108,7 +39119,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A594">
         <v>597</v>
       </c>
@@ -39146,7 +39157,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A595">
         <v>598</v>
       </c>
@@ -39184,7 +39195,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A596">
         <v>599</v>
       </c>
@@ -39222,7 +39233,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A597">
         <v>600</v>
       </c>
@@ -39260,7 +39271,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A598">
         <v>601</v>
       </c>
@@ -39298,7 +39309,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A599">
         <v>602</v>
       </c>
@@ -39336,7 +39347,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A600">
         <v>603</v>
       </c>
@@ -39374,7 +39385,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A601">
         <v>604</v>
       </c>
@@ -39412,7 +39423,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A602">
         <v>605</v>
       </c>
@@ -39450,7 +39461,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A603">
         <v>606</v>
       </c>
@@ -39488,7 +39499,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A604">
         <v>607</v>
       </c>
@@ -39526,7 +39537,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A605">
         <v>608</v>
       </c>
@@ -39564,7 +39575,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A606">
         <v>609</v>
       </c>
@@ -39602,7 +39613,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A607">
         <v>610</v>
       </c>
@@ -39640,7 +39651,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A608">
         <v>611</v>
       </c>
@@ -39678,7 +39689,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A609">
         <v>612</v>
       </c>
@@ -39716,7 +39727,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A610">
         <v>613</v>
       </c>
@@ -39754,7 +39765,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A611">
         <v>614</v>
       </c>
@@ -39792,7 +39803,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A612">
         <v>615</v>
       </c>
@@ -39830,7 +39841,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A613">
         <v>616</v>
       </c>
@@ -39868,7 +39879,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A614">
         <v>617</v>
       </c>
@@ -39906,7 +39917,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A615">
         <v>618</v>
       </c>
@@ -39944,7 +39955,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A616">
         <v>619</v>
       </c>
@@ -39982,7 +39993,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A617">
         <v>620</v>
       </c>
@@ -40020,7 +40031,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A618">
         <v>621</v>
       </c>
@@ -40058,7 +40069,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A619">
         <v>622</v>
       </c>
@@ -40096,7 +40107,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A620">
         <v>623</v>
       </c>
@@ -40134,7 +40145,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A621">
         <v>624</v>
       </c>
@@ -40172,7 +40183,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A622">
         <v>625</v>
       </c>
@@ -40210,7 +40221,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A623">
         <v>626</v>
       </c>
@@ -40248,7 +40259,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A624">
         <v>627</v>
       </c>
@@ -40286,7 +40297,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A625">
         <v>628</v>
       </c>
@@ -40324,7 +40335,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A626">
         <v>629</v>
       </c>
@@ -40362,7 +40373,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A627">
         <v>630</v>
       </c>
@@ -40400,7 +40411,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A628">
         <v>631</v>
       </c>
@@ -40438,7 +40449,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A629">
         <v>632</v>
       </c>
@@ -40476,7 +40487,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A630">
         <v>633</v>
       </c>
@@ -40514,7 +40525,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A631">
         <v>634</v>
       </c>
@@ -40552,7 +40563,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A632">
         <v>635</v>
       </c>
@@ -40590,7 +40601,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A633">
         <v>636</v>
       </c>
@@ -40628,7 +40639,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A634">
         <v>637</v>
       </c>
@@ -40666,7 +40677,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A635">
         <v>638</v>
       </c>
@@ -40704,7 +40715,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A636">
         <v>639</v>
       </c>
@@ -40742,7 +40753,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A637">
         <v>640</v>
       </c>
@@ -40780,7 +40791,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A638">
         <v>641</v>
       </c>
@@ -40818,7 +40829,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A639">
         <v>642</v>
       </c>
@@ -40856,7 +40867,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A640">
         <v>643</v>
       </c>
@@ -40894,7 +40905,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A641">
         <v>644</v>
       </c>
@@ -40932,7 +40943,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A642">
         <v>645</v>
       </c>
@@ -40970,7 +40981,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A643">
         <v>646</v>
       </c>
@@ -41008,7 +41019,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A644">
         <v>647</v>
       </c>
@@ -41046,7 +41057,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A645">
         <v>648</v>
       </c>
@@ -41084,7 +41095,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A646">
         <v>649</v>
       </c>
@@ -41122,7 +41133,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A647">
         <v>650</v>
       </c>
@@ -41160,7 +41171,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A648">
         <v>651</v>
       </c>
@@ -41198,7 +41209,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A649">
         <v>652</v>
       </c>
@@ -41236,7 +41247,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A650">
         <v>653</v>
       </c>

--- a/Entwurf.xlsx
+++ b/Entwurf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE13471-ABB2-4716-9BCF-93BC2235D135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EA5BB0-075C-48BF-9A3C-2FCA0DF03588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorbehandlungen" sheetId="1" r:id="rId1"/>
@@ -16450,7 +16450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M650"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A92" sqref="A92:A593"/>
     </sheetView>
   </sheetViews>
@@ -41298,8 +41298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Entwurf.xlsx
+++ b/Entwurf.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EA5BB0-075C-48BF-9A3C-2FCA0DF03588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227C7E77-5BF1-4939-AB64-B5ED08432A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorbehandlungen" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9308" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9380" uniqueCount="404">
   <si>
     <t>HDH Aufschluss</t>
   </si>
@@ -1752,8 +1752,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:D351" totalsRowShown="0">
-  <autoFilter ref="A1:D351" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:D387" totalsRowShown="0">
+  <autoFilter ref="A1:D387" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Versuch"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Produktfraktion"/>
@@ -1769,7 +1769,8 @@
   <autoFilter ref="A1:M650" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Trockene Zellen"/>
+        <filter val="Extrahierte Zellreste"/>
+        <filter val="PHA"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
@@ -2786,7 +2787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
+      <selection pane="bottomLeft" activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11727,10 +11728,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D351"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="G350" sqref="G350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16438,6 +16439,294 @@
         <v>30.107099999999999</v>
       </c>
     </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A352" t="s">
+        <v>156</v>
+      </c>
+      <c r="B352" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353" t="s">
+        <v>157</v>
+      </c>
+      <c r="B353" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354" t="s">
+        <v>158</v>
+      </c>
+      <c r="B354" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
+        <v>159</v>
+      </c>
+      <c r="B355" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356" t="s">
+        <v>160</v>
+      </c>
+      <c r="B356" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357" t="s">
+        <v>161</v>
+      </c>
+      <c r="B357" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358" t="s">
+        <v>162</v>
+      </c>
+      <c r="B358" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359" t="s">
+        <v>163</v>
+      </c>
+      <c r="B359" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360" t="s">
+        <v>164</v>
+      </c>
+      <c r="B360" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361" t="s">
+        <v>165</v>
+      </c>
+      <c r="B361" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362" t="s">
+        <v>166</v>
+      </c>
+      <c r="B362" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>167</v>
+      </c>
+      <c r="B363" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364" t="s">
+        <v>168</v>
+      </c>
+      <c r="B364" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365" t="s">
+        <v>169</v>
+      </c>
+      <c r="B365" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366" t="s">
+        <v>170</v>
+      </c>
+      <c r="B366" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367" t="s">
+        <v>171</v>
+      </c>
+      <c r="B367" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368" t="s">
+        <v>172</v>
+      </c>
+      <c r="B368" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A369" t="s">
+        <v>173</v>
+      </c>
+      <c r="B369" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A370" t="s">
+        <v>174</v>
+      </c>
+      <c r="B370" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A371" t="s">
+        <v>175</v>
+      </c>
+      <c r="B371" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A372" t="s">
+        <v>176</v>
+      </c>
+      <c r="B372" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A373" t="s">
+        <v>177</v>
+      </c>
+      <c r="B373" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A374" t="s">
+        <v>178</v>
+      </c>
+      <c r="B374" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>179</v>
+      </c>
+      <c r="B375" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A376" t="s">
+        <v>180</v>
+      </c>
+      <c r="B376" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A377" t="s">
+        <v>181</v>
+      </c>
+      <c r="B377" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A378" t="s">
+        <v>182</v>
+      </c>
+      <c r="B378" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A379" t="s">
+        <v>183</v>
+      </c>
+      <c r="B379" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A380" t="s">
+        <v>184</v>
+      </c>
+      <c r="B380" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A381" t="s">
+        <v>185</v>
+      </c>
+      <c r="B381" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A382" t="s">
+        <v>186</v>
+      </c>
+      <c r="B382" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A383" t="s">
+        <v>187</v>
+      </c>
+      <c r="B383" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A384" t="s">
+        <v>188</v>
+      </c>
+      <c r="B384" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B385" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A386" t="s">
+        <v>190</v>
+      </c>
+      <c r="B386" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A387" t="s">
+        <v>191</v>
+      </c>
+      <c r="B387" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16450,8 +16739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M650"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:A593"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16512,7 +16801,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16550,7 +16839,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16588,7 +16877,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16626,7 +16915,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16664,7 +16953,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16702,7 +16991,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16740,7 +17029,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16778,7 +17067,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16816,7 +17105,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16854,7 +17143,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16892,7 +17181,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16930,7 +17219,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17880,7 +18169,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17918,7 +18207,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17956,7 +18245,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17994,7 +18283,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -18032,7 +18321,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -18070,7 +18359,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18108,7 +18397,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18146,7 +18435,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18184,7 +18473,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18222,7 +18511,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18336,7 +18625,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18374,7 +18663,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18792,7 +19081,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18874,7 +19163,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18956,7 +19245,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -19038,7 +19327,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -19114,7 +19403,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -19190,7 +19479,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -19257,7 +19546,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -19324,7 +19613,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -19403,7 +19692,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -19479,7 +19768,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -19558,7 +19847,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -19634,7 +19923,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -19672,7 +19961,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -19710,7 +19999,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -19748,7 +20037,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -19920,7 +20209,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -19961,7 +20250,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -20084,7 +20373,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -20122,7 +20411,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -20236,7 +20525,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -20274,7 +20563,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -20391,7 +20680,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -20473,7 +20762,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -20552,7 +20841,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -20628,7 +20917,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -20666,7 +20955,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -21190,7 +21479,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -21228,7 +21517,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -21342,7 +21631,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -21380,7 +21669,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -21476,7 +21765,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -21517,7 +21806,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -21593,7 +21882,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -21634,7 +21923,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -21710,7 +21999,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -21751,7 +22040,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -21827,7 +22116,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -21868,7 +22157,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -21944,7 +22233,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -21985,7 +22274,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -22061,7 +22350,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -22102,7 +22391,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -22178,7 +22467,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -22219,7 +22508,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -22295,7 +22584,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -22336,7 +22625,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -22412,7 +22701,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -22453,7 +22742,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -22494,7 +22783,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -22535,7 +22824,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -22611,7 +22900,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -22652,7 +22941,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -22728,7 +23017,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -22766,7 +23055,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -22862,7 +23151,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -22900,7 +23189,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -22996,7 +23285,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -23034,7 +23323,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -23130,7 +23419,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -23168,7 +23457,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -23264,7 +23553,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -23305,7 +23594,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -23346,7 +23635,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -23384,7 +23673,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -23480,7 +23769,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -23518,7 +23807,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -23614,7 +23903,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -23643,7 +23932,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -23730,7 +24019,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -23768,7 +24057,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -23864,7 +24153,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -23893,7 +24182,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -23980,7 +24269,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -24018,7 +24307,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -24114,7 +24403,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -24143,7 +24432,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -24230,7 +24519,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -24268,7 +24557,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -24364,7 +24653,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -24393,7 +24682,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -24480,7 +24769,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -24518,7 +24807,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -24614,7 +24903,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -24652,7 +24941,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -24795,7 +25084,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -24836,7 +25125,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -24877,7 +25166,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -24918,7 +25207,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -24959,7 +25248,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -24997,7 +25286,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -25035,7 +25324,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>236</v>
       </c>
@@ -25076,7 +25365,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>237</v>
       </c>
@@ -25117,7 +25406,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>238</v>
       </c>
@@ -25158,7 +25447,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>239</v>
       </c>
@@ -25199,7 +25488,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>240</v>
       </c>
@@ -25240,7 +25529,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>241</v>
       </c>
@@ -25281,7 +25570,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>242</v>
       </c>
@@ -25322,7 +25611,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>243</v>
       </c>
@@ -25363,7 +25652,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>244</v>
       </c>
@@ -25404,7 +25693,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>245</v>
       </c>
@@ -25445,7 +25734,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>246</v>
       </c>
@@ -25486,7 +25775,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>247</v>
       </c>
@@ -25527,7 +25816,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>248</v>
       </c>
@@ -25568,7 +25857,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>249</v>
       </c>
@@ -25609,7 +25898,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>250</v>
       </c>
@@ -25650,7 +25939,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>251</v>
       </c>
@@ -25691,7 +25980,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>252</v>
       </c>
@@ -25732,7 +26021,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>253</v>
       </c>
@@ -25773,7 +26062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>254</v>
       </c>
@@ -25814,7 +26103,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>255</v>
       </c>
@@ -25855,7 +26144,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>256</v>
       </c>
@@ -25896,7 +26185,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>257</v>
       </c>
@@ -25937,7 +26226,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>258</v>
       </c>
@@ -25978,7 +26267,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>259</v>
       </c>
@@ -26019,7 +26308,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>260</v>
       </c>
@@ -26060,7 +26349,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>261</v>
       </c>
@@ -26101,7 +26390,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>262</v>
       </c>
@@ -26142,7 +26431,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>263</v>
       </c>
@@ -26798,7 +27087,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>279</v>
       </c>
@@ -26839,7 +27128,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>280</v>
       </c>
@@ -26880,7 +27169,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>281</v>
       </c>
@@ -26921,7 +27210,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>282</v>
       </c>
@@ -26962,7 +27251,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>283</v>
       </c>
@@ -27003,7 +27292,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>284</v>
       </c>
@@ -27044,7 +27333,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>285</v>
       </c>
@@ -27085,7 +27374,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>286</v>
       </c>
@@ -27126,7 +27415,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>287</v>
       </c>
@@ -27167,7 +27456,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>288</v>
       </c>
@@ -27208,7 +27497,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>289</v>
       </c>
@@ -27249,7 +27538,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>290</v>
       </c>
@@ -27290,7 +27579,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>291</v>
       </c>
@@ -27331,7 +27620,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>292</v>
       </c>
@@ -27372,7 +27661,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>293</v>
       </c>
@@ -27413,7 +27702,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>294</v>
       </c>
@@ -27700,7 +27989,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>301</v>
       </c>
@@ -27741,7 +28030,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>302</v>
       </c>
@@ -27782,7 +28071,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>303</v>
       </c>
@@ -27823,7 +28112,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>304</v>
       </c>
@@ -27864,7 +28153,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>305</v>
       </c>
@@ -27905,7 +28194,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>306</v>
       </c>
@@ -27946,7 +28235,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>307</v>
       </c>
@@ -27987,7 +28276,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>308</v>
       </c>
@@ -28028,7 +28317,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>309</v>
       </c>
@@ -28069,7 +28358,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>310</v>
       </c>
@@ -28110,7 +28399,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>311</v>
       </c>
@@ -28151,7 +28440,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>312</v>
       </c>
@@ -28192,7 +28481,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>313</v>
       </c>
@@ -28233,7 +28522,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>314</v>
       </c>
@@ -28274,7 +28563,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>315</v>
       </c>
@@ -28315,7 +28604,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>316</v>
       </c>
@@ -28356,7 +28645,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>317</v>
       </c>
@@ -28397,7 +28686,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>318</v>
       </c>
@@ -28438,7 +28727,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>319</v>
       </c>
@@ -28479,7 +28768,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>320</v>
       </c>
@@ -28520,7 +28809,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>321</v>
       </c>
@@ -28561,7 +28850,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>322</v>
       </c>
@@ -28602,7 +28891,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>323</v>
       </c>
@@ -28643,7 +28932,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>324</v>
       </c>
@@ -28684,7 +28973,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>325</v>
       </c>
@@ -28725,7 +29014,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>326</v>
       </c>
@@ -28766,7 +29055,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>327</v>
       </c>
@@ -28807,7 +29096,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>328</v>
       </c>
@@ -28848,7 +29137,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>329</v>
       </c>
@@ -28889,7 +29178,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>330</v>
       </c>
@@ -28930,7 +29219,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>331</v>
       </c>
@@ -28971,7 +29260,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>332</v>
       </c>
@@ -29012,7 +29301,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>333</v>
       </c>
@@ -29299,7 +29588,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>340</v>
       </c>
@@ -29340,7 +29629,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>341</v>
       </c>
@@ -29381,7 +29670,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>342</v>
       </c>
@@ -29422,7 +29711,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>343</v>
       </c>
@@ -29463,7 +29752,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>344</v>
       </c>
@@ -29504,7 +29793,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>345</v>
       </c>
@@ -29545,7 +29834,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>346</v>
       </c>
@@ -29586,7 +29875,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>347</v>
       </c>
@@ -29627,7 +29916,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>348</v>
       </c>
@@ -29668,7 +29957,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>349</v>
       </c>
@@ -29709,7 +29998,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>350</v>
       </c>
@@ -29750,7 +30039,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>351</v>
       </c>
@@ -29791,7 +30080,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>352</v>
       </c>
@@ -29832,7 +30121,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>353</v>
       </c>
@@ -29873,7 +30162,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>354</v>
       </c>
@@ -29914,7 +30203,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>355</v>
       </c>
@@ -29955,7 +30244,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>356</v>
       </c>
@@ -29996,7 +30285,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>357</v>
       </c>
@@ -30037,7 +30326,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>358</v>
       </c>
@@ -30078,7 +30367,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>359</v>
       </c>
@@ -30119,7 +30408,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>360</v>
       </c>
@@ -30160,7 +30449,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>361</v>
       </c>
@@ -30201,7 +30490,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>362</v>
       </c>
@@ -30242,7 +30531,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>363</v>
       </c>
@@ -30283,7 +30572,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>364</v>
       </c>
@@ -30324,7 +30613,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>365</v>
       </c>
@@ -30365,7 +30654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>366</v>
       </c>
@@ -30406,7 +30695,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>367</v>
       </c>
@@ -30447,7 +30736,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>368</v>
       </c>
@@ -30488,7 +30777,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>369</v>
       </c>
@@ -30529,7 +30818,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>370</v>
       </c>
@@ -30570,7 +30859,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>371</v>
       </c>
@@ -30611,7 +30900,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>372</v>
       </c>
@@ -30652,7 +30941,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>373</v>
       </c>
@@ -30693,7 +30982,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>374</v>
       </c>
@@ -30734,7 +31023,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>375</v>
       </c>
@@ -30775,7 +31064,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>376</v>
       </c>
@@ -30816,7 +31105,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>377</v>
       </c>
@@ -30857,7 +31146,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>378</v>
       </c>
@@ -30898,7 +31187,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>379</v>
       </c>
@@ -30939,7 +31228,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>380</v>
       </c>
@@ -30980,7 +31269,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>381</v>
       </c>
@@ -31021,7 +31310,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>382</v>
       </c>
@@ -31062,7 +31351,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>383</v>
       </c>
@@ -31103,7 +31392,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>384</v>
       </c>
@@ -31144,7 +31433,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>385</v>
       </c>
@@ -31185,7 +31474,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>386</v>
       </c>
@@ -31226,7 +31515,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>387</v>
       </c>
@@ -31267,7 +31556,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>388</v>
       </c>
@@ -31308,7 +31597,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>389</v>
       </c>
@@ -32374,7 +32663,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>415</v>
       </c>
@@ -32415,7 +32704,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>416</v>
       </c>
@@ -32456,7 +32745,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>417</v>
       </c>
@@ -32497,7 +32786,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>418</v>
       </c>
@@ -32538,7 +32827,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>419</v>
       </c>
@@ -32579,7 +32868,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>420</v>
       </c>
@@ -32620,7 +32909,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>421</v>
       </c>
@@ -32661,7 +32950,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>422</v>
       </c>
@@ -32702,7 +32991,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>423</v>
       </c>
@@ -32743,7 +33032,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>424</v>
       </c>
@@ -32784,7 +33073,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>425</v>
       </c>
@@ -32825,7 +33114,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>426</v>
       </c>
@@ -32866,7 +33155,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>427</v>
       </c>
@@ -32907,7 +33196,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>428</v>
       </c>
@@ -32948,7 +33237,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>429</v>
       </c>
@@ -32989,7 +33278,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>430</v>
       </c>
@@ -33030,7 +33319,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>431</v>
       </c>
@@ -33071,7 +33360,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>432</v>
       </c>
@@ -33112,7 +33401,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>433</v>
       </c>
@@ -33153,7 +33442,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>434</v>
       </c>
@@ -33194,7 +33483,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>435</v>
       </c>
@@ -33235,7 +33524,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>436</v>
       </c>
@@ -33276,7 +33565,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>437</v>
       </c>
@@ -33317,7 +33606,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>438</v>
       </c>
@@ -33358,7 +33647,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>439</v>
       </c>
@@ -33399,7 +33688,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>440</v>
       </c>
@@ -33440,7 +33729,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>441</v>
       </c>
@@ -33481,7 +33770,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>442</v>
       </c>
@@ -33522,7 +33811,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>443</v>
       </c>
@@ -33563,7 +33852,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>444</v>
       </c>
@@ -33604,7 +33893,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>445</v>
       </c>
@@ -33645,7 +33934,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>446</v>
       </c>
@@ -33686,7 +33975,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>447</v>
       </c>
@@ -33727,7 +34016,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>448</v>
       </c>
@@ -33768,7 +34057,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>449</v>
       </c>
@@ -33809,7 +34098,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>450</v>
       </c>
@@ -33850,7 +34139,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>451</v>
       </c>
@@ -33891,7 +34180,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>452</v>
       </c>
@@ -33932,7 +34221,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>453</v>
       </c>
@@ -33973,7 +34262,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>454</v>
       </c>
@@ -37409,7 +37698,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>552</v>
       </c>
@@ -37447,7 +37736,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>553</v>
       </c>
@@ -37485,7 +37774,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>554</v>
       </c>
@@ -37523,7 +37812,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>555</v>
       </c>
@@ -37561,7 +37850,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>556</v>
       </c>
@@ -37599,7 +37888,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>557</v>
       </c>
@@ -37637,7 +37926,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>558</v>
       </c>
@@ -37675,7 +37964,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>559</v>
       </c>
@@ -37713,7 +38002,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>560</v>
       </c>
@@ -37751,7 +38040,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>561</v>
       </c>
@@ -37789,7 +38078,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>562</v>
       </c>
@@ -37827,7 +38116,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>563</v>
       </c>
@@ -37865,7 +38154,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>564</v>
       </c>
@@ -37903,7 +38192,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>565</v>
       </c>
@@ -37941,7 +38230,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>566</v>
       </c>
@@ -37979,7 +38268,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>567</v>
       </c>
@@ -38017,7 +38306,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>568</v>
       </c>
@@ -38055,7 +38344,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>569</v>
       </c>
@@ -38093,7 +38382,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>570</v>
       </c>
@@ -38131,7 +38420,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>571</v>
       </c>
@@ -38169,7 +38458,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>572</v>
       </c>
@@ -38207,7 +38496,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>573</v>
       </c>
@@ -38245,7 +38534,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>574</v>
       </c>
@@ -38283,7 +38572,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>575</v>
       </c>
@@ -38321,7 +38610,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>576</v>
       </c>
@@ -38359,7 +38648,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>577</v>
       </c>
@@ -38397,7 +38686,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>578</v>
       </c>
@@ -38435,7 +38724,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>579</v>
       </c>
@@ -38473,7 +38762,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>580</v>
       </c>
@@ -38511,7 +38800,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>581</v>
       </c>
@@ -38549,7 +38838,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>582</v>
       </c>
@@ -38587,7 +38876,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>583</v>
       </c>
@@ -38625,7 +38914,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>584</v>
       </c>
@@ -38663,7 +38952,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>585</v>
       </c>
@@ -38701,7 +38990,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>586</v>
       </c>
@@ -38739,7 +39028,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>587</v>
       </c>
@@ -38777,7 +39066,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>588</v>
       </c>
@@ -38815,7 +39104,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>589</v>
       </c>
@@ -38853,7 +39142,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>590</v>
       </c>
@@ -38891,7 +39180,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>591</v>
       </c>
@@ -38929,7 +39218,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>592</v>
       </c>
@@ -38967,7 +39256,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>593</v>
       </c>
@@ -39005,7 +39294,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>594</v>
       </c>
@@ -39043,7 +39332,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A592">
         <v>595</v>
       </c>
@@ -39081,7 +39370,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A593">
         <v>596</v>
       </c>
@@ -39347,7 +39636,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A600">
         <v>603</v>
       </c>
@@ -39385,7 +39674,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A601">
         <v>604</v>
       </c>
@@ -40183,7 +40472,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A622">
         <v>625</v>
       </c>
@@ -40221,7 +40510,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="623" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A623">
         <v>626</v>
       </c>
@@ -40259,7 +40548,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="624" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A624">
         <v>627</v>
       </c>
@@ -40297,7 +40586,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="625" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A625">
         <v>628</v>
       </c>
@@ -40335,7 +40624,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A626">
         <v>629</v>
       </c>
@@ -40373,7 +40662,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="627" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A627">
         <v>630</v>
       </c>
@@ -40411,7 +40700,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A628">
         <v>631</v>
       </c>
@@ -40449,7 +40738,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="629" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A629">
         <v>632</v>
       </c>
@@ -40487,7 +40776,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A630">
         <v>633</v>
       </c>
@@ -41298,7 +41587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/Entwurf.xlsx
+++ b/Entwurf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5B3155-ED5F-42A2-837C-4863A9DBE1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1331941-2696-40DC-9F34-F32628A8F79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorbehandlungen Bis" sheetId="14" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10306" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10285" uniqueCount="481">
   <si>
     <t>HDH Aufschluss</t>
   </si>
@@ -1467,10 +1467,10 @@
     <t>ME01</t>
   </si>
   <si>
-    <t>PMAG Feces NaOH Malaysia</t>
+    <t>PMAG Feces Malaysia</t>
   </si>
   <si>
-    <t>PMAG Feces Malaysia</t>
+    <t>PMAG NaOH Malaysia</t>
   </si>
 </sst>
 </file>
@@ -2057,8 +2057,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:I1386" totalsRowShown="0">
-  <autoFilter ref="A1:I1386" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle6" displayName="Tabelle6" ref="A1:I1398" totalsRowShown="0">
+  <autoFilter ref="A1:I1398" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1143">
     <sortCondition ref="A1:A1143"/>
   </sortState>
@@ -6038,8 +6038,8 @@
   <dimension ref="A1:S179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H180" sqref="H180"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10602,12 +10602,6 @@
       <c r="Q81" t="s">
         <v>142</v>
       </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
@@ -10658,12 +10652,6 @@
       <c r="Q82" t="s">
         <v>142</v>
       </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
@@ -10714,12 +10702,6 @@
       <c r="Q83" t="s">
         <v>142</v>
       </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
@@ -10770,12 +10752,6 @@
       <c r="Q84" t="s">
         <v>142</v>
       </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
@@ -10826,12 +10802,6 @@
       <c r="Q85" t="s">
         <v>142</v>
       </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
@@ -10882,12 +10852,6 @@
       <c r="Q86" t="s">
         <v>142</v>
       </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
@@ -10938,12 +10902,6 @@
       <c r="Q87" t="s">
         <v>142</v>
       </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
@@ -10994,12 +10952,6 @@
       <c r="Q88" t="s">
         <v>142</v>
       </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
@@ -11050,12 +11002,6 @@
       <c r="Q89" t="s">
         <v>142</v>
       </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
@@ -11106,12 +11052,6 @@
       <c r="Q90" t="s">
         <v>142</v>
       </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
@@ -11162,12 +11102,6 @@
       <c r="Q91" t="s">
         <v>142</v>
       </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
@@ -11218,12 +11152,6 @@
       <c r="Q92" t="s">
         <v>142</v>
       </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
@@ -11274,12 +11202,6 @@
       <c r="Q93" t="s">
         <v>142</v>
       </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
@@ -11329,12 +11251,6 @@
       </c>
       <c r="Q94" t="s">
         <v>142</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.45">
@@ -15007,9 +14923,6 @@
       <c r="L160">
         <v>1.9456962025316444</v>
       </c>
-      <c r="M160" t="s">
-        <v>142</v>
-      </c>
       <c r="N160">
         <v>0</v>
       </c>
@@ -15066,9 +14979,6 @@
       <c r="L161">
         <v>2.1030379746835441</v>
       </c>
-      <c r="M161" t="s">
-        <v>142</v>
-      </c>
       <c r="N161">
         <v>0</v>
       </c>
@@ -15125,9 +15035,6 @@
       <c r="L162">
         <v>1.9562025316455705</v>
       </c>
-      <c r="M162" t="s">
-        <v>142</v>
-      </c>
       <c r="N162">
         <v>0</v>
       </c>
@@ -15184,9 +15091,6 @@
       <c r="L163">
         <v>2.002658227848102</v>
       </c>
-      <c r="M163" t="s">
-        <v>142</v>
-      </c>
       <c r="N163">
         <v>0</v>
       </c>
@@ -15243,9 +15147,6 @@
       <c r="L164">
         <v>10.115316455696199</v>
       </c>
-      <c r="M164" t="s">
-        <v>142</v>
-      </c>
       <c r="N164">
         <v>0</v>
       </c>
@@ -15302,9 +15203,6 @@
       <c r="L165">
         <v>9.9516455696202524</v>
       </c>
-      <c r="M165" t="s">
-        <v>142</v>
-      </c>
       <c r="N165">
         <v>0</v>
       </c>
@@ -15361,9 +15259,6 @@
       <c r="L166">
         <v>9.9970886075949341</v>
       </c>
-      <c r="M166" t="s">
-        <v>142</v>
-      </c>
       <c r="N166">
         <v>0</v>
       </c>
@@ -15420,9 +15315,6 @@
       <c r="L167">
         <v>10.065569620253166</v>
       </c>
-      <c r="M167" t="s">
-        <v>142</v>
-      </c>
       <c r="N167">
         <v>0</v>
       </c>
@@ -15479,9 +15371,6 @@
       <c r="L168">
         <v>9.9634177215189883</v>
       </c>
-      <c r="M168" t="s">
-        <v>142</v>
-      </c>
       <c r="N168">
         <v>0</v>
       </c>
@@ -15538,9 +15427,6 @@
       <c r="L169">
         <v>10.153670886075949</v>
       </c>
-      <c r="M169" t="s">
-        <v>142</v>
-      </c>
       <c r="N169">
         <v>0</v>
       </c>
@@ -15606,15 +15492,6 @@
       <c r="P170">
         <v>60</v>
       </c>
-      <c r="Q170" t="s">
-        <v>142</v>
-      </c>
-      <c r="R170" t="s">
-        <v>142</v>
-      </c>
-      <c r="S170" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
@@ -15662,15 +15539,6 @@
       <c r="P171">
         <v>60</v>
       </c>
-      <c r="Q171" t="s">
-        <v>142</v>
-      </c>
-      <c r="R171" t="s">
-        <v>142</v>
-      </c>
-      <c r="S171" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
@@ -15715,15 +15583,6 @@
       <c r="P172">
         <v>60</v>
       </c>
-      <c r="Q172" t="s">
-        <v>142</v>
-      </c>
-      <c r="R172" t="s">
-        <v>142</v>
-      </c>
-      <c r="S172" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
@@ -15768,15 +15627,6 @@
       <c r="P173">
         <v>60</v>
       </c>
-      <c r="Q173" t="s">
-        <v>142</v>
-      </c>
-      <c r="R173" t="s">
-        <v>142</v>
-      </c>
-      <c r="S173" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
@@ -15821,15 +15671,6 @@
       <c r="P174">
         <v>60</v>
       </c>
-      <c r="Q174" t="s">
-        <v>142</v>
-      </c>
-      <c r="R174" t="s">
-        <v>142</v>
-      </c>
-      <c r="S174" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
@@ -15873,15 +15714,6 @@
       </c>
       <c r="P175">
         <v>60</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>142</v>
-      </c>
-      <c r="R175" t="s">
-        <v>142</v>
-      </c>
-      <c r="S175" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.45">
@@ -16103,7 +15935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
+    <sheetView topLeftCell="A345" workbookViewId="0">
       <selection activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
@@ -21222,8 +21054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M713"/>
   <sheetViews>
-    <sheetView topLeftCell="A604" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H714" sqref="H714"/>
+    <sheetView topLeftCell="A688" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E627" sqref="E627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48400,7 +48232,7 @@
         <v>204</v>
       </c>
       <c r="E710" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F710" t="s">
         <v>227</v>
@@ -48432,7 +48264,7 @@
         <v>204</v>
       </c>
       <c r="E711" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F711" t="s">
         <v>227</v>
@@ -48460,11 +48292,8 @@
       <c r="C712" t="s">
         <v>24</v>
       </c>
-      <c r="D712" t="s">
-        <v>204</v>
-      </c>
       <c r="E712" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F712" t="s">
         <v>227</v>
@@ -48492,11 +48321,8 @@
       <c r="C713" t="s">
         <v>24</v>
       </c>
-      <c r="D713" t="s">
-        <v>204</v>
-      </c>
       <c r="E713" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F713" t="s">
         <v>227</v>
@@ -48674,10 +48500,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1386"/>
+  <dimension ref="A1:I1398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1367" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1387" sqref="A1387"/>
+    <sheetView tabSelected="1" topLeftCell="A1365" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1397" sqref="C1397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -88856,6 +88682,309 @@
         <v>334</v>
       </c>
     </row>
+    <row r="1387" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1387">
+        <v>1546</v>
+      </c>
+      <c r="B1387">
+        <v>3</v>
+      </c>
+      <c r="C1387">
+        <v>4.6479999999999997</v>
+      </c>
+      <c r="D1387">
+        <v>7.1319999999999997</v>
+      </c>
+      <c r="E1387">
+        <v>7.4409999999999998</v>
+      </c>
+      <c r="F1387">
+        <v>269536</v>
+      </c>
+      <c r="G1387">
+        <v>102409.4</v>
+      </c>
+      <c r="H1387">
+        <v>141398.20000000001</v>
+      </c>
+      <c r="I1387" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1388">
+        <v>1546</v>
+      </c>
+      <c r="B1388">
+        <v>3</v>
+      </c>
+      <c r="C1388">
+        <v>4.665</v>
+      </c>
+      <c r="D1388">
+        <v>7.141</v>
+      </c>
+      <c r="E1388">
+        <v>7.4619999999999997</v>
+      </c>
+      <c r="F1388">
+        <v>226636.9</v>
+      </c>
+      <c r="G1388">
+        <v>89412.4</v>
+      </c>
+      <c r="H1388">
+        <v>118450.4</v>
+      </c>
+      <c r="I1388" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1389">
+        <v>1546</v>
+      </c>
+      <c r="B1389">
+        <v>3</v>
+      </c>
+      <c r="C1389">
+        <v>4.6539999999999999</v>
+      </c>
+      <c r="D1389">
+        <v>7.1740000000000004</v>
+      </c>
+      <c r="E1389">
+        <v>7.4470000000000001</v>
+      </c>
+      <c r="F1389">
+        <v>270857.8</v>
+      </c>
+      <c r="G1389">
+        <v>107311.1</v>
+      </c>
+      <c r="H1389">
+        <v>143013</v>
+      </c>
+      <c r="I1389" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1390">
+        <v>1547</v>
+      </c>
+      <c r="B1390">
+        <v>3</v>
+      </c>
+      <c r="C1390">
+        <v>4.6479999999999997</v>
+      </c>
+      <c r="D1390">
+        <v>7.1340000000000003</v>
+      </c>
+      <c r="E1390">
+        <v>7.4409999999999998</v>
+      </c>
+      <c r="F1390">
+        <v>290806.3</v>
+      </c>
+      <c r="G1390">
+        <v>116725</v>
+      </c>
+      <c r="H1390">
+        <v>140429.29999999999</v>
+      </c>
+      <c r="I1390" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1391">
+        <v>1547</v>
+      </c>
+      <c r="B1391">
+        <v>3</v>
+      </c>
+      <c r="C1391">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D1391">
+        <v>7.1340000000000003</v>
+      </c>
+      <c r="E1391">
+        <v>7.4349999999999996</v>
+      </c>
+      <c r="F1391">
+        <v>270311.09999999998</v>
+      </c>
+      <c r="G1391">
+        <v>109199.5</v>
+      </c>
+      <c r="H1391">
+        <v>139856.70000000001</v>
+      </c>
+      <c r="I1391" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1392">
+        <v>1547</v>
+      </c>
+      <c r="B1392">
+        <v>3</v>
+      </c>
+      <c r="C1392">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="D1392">
+        <v>7.133</v>
+      </c>
+      <c r="E1392">
+        <v>7.4349999999999996</v>
+      </c>
+      <c r="F1392">
+        <v>285140.7</v>
+      </c>
+      <c r="G1392">
+        <v>120006.3</v>
+      </c>
+      <c r="H1392">
+        <v>153449.79999999999</v>
+      </c>
+      <c r="I1392" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1393">
+        <v>1548</v>
+      </c>
+      <c r="B1393">
+        <v>3</v>
+      </c>
+      <c r="C1393">
+        <v>4.6050000000000004</v>
+      </c>
+      <c r="D1393">
+        <v>7.133</v>
+      </c>
+      <c r="E1393">
+        <v>7.3970000000000002</v>
+      </c>
+      <c r="F1393">
+        <v>511492</v>
+      </c>
+      <c r="G1393">
+        <v>97161.8</v>
+      </c>
+      <c r="H1393">
+        <v>254829.1</v>
+      </c>
+      <c r="I1393" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1394">
+        <v>1548</v>
+      </c>
+      <c r="B1394">
+        <v>3</v>
+      </c>
+      <c r="C1394">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="D1394">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="E1394">
+        <v>7.484</v>
+      </c>
+      <c r="F1394">
+        <v>423628.5</v>
+      </c>
+      <c r="G1394">
+        <v>80456</v>
+      </c>
+      <c r="H1394">
+        <v>107208.5</v>
+      </c>
+      <c r="I1394" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1395">
+        <v>1548</v>
+      </c>
+      <c r="B1395">
+        <v>3</v>
+      </c>
+      <c r="C1395">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="D1395">
+        <v>7.1369999999999996</v>
+      </c>
+      <c r="E1395">
+        <v>7.4279999999999999</v>
+      </c>
+      <c r="F1395">
+        <v>382735.9</v>
+      </c>
+      <c r="G1395">
+        <v>75191.7</v>
+      </c>
+      <c r="H1395">
+        <v>180331</v>
+      </c>
+      <c r="I1395" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1396">
+        <v>1549</v>
+      </c>
+      <c r="B1396">
+        <v>3</v>
+      </c>
+      <c r="C1396">
+        <v>4.6509999999999998</v>
+      </c>
+      <c r="D1396">
+        <v>7.149</v>
+      </c>
+      <c r="E1396">
+        <v>7.4539999999999997</v>
+      </c>
+      <c r="F1396">
+        <v>295611.3</v>
+      </c>
+      <c r="G1396">
+        <v>116624.8</v>
+      </c>
+      <c r="H1396">
+        <v>148337</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1397">
+        <v>1549</v>
+      </c>
+      <c r="B1397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1398">
+        <v>1549</v>
+      </c>
+      <c r="B1398">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
